--- a/resources/dataset.xlsx
+++ b/resources/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\Python\Project\upolanc-nlp\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B397C9B7-68FB-4A87-B090-E7B6CEE30C48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90335E0-97BB-410A-B0CC-C68D0FC278FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6718" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6714" uniqueCount="969">
   <si>
     <t>Course</t>
   </si>
@@ -1435,9 +1435,6 @@
   </si>
   <si>
     <t>Matthew said he would be able to get on later tonight.</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t xml:space="preserve"> I am planning on checking in later to see what he adds ...</t>
@@ -3518,15 +3515,16 @@
   <dimension ref="A1:W712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
@@ -7804,14 +7802,14 @@
       <c r="A123" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B123" s="45" t="s">
-        <v>170</v>
+      <c r="B123" s="45">
+        <v>260</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="E123" s="18" t="s">
         <v>170</v>
@@ -7839,14 +7837,14 @@
       <c r="A124" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="45" t="s">
-        <v>170</v>
+      <c r="B124" s="45">
+        <v>260</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="E124" s="18" t="s">
         <v>170</v>
@@ -20115,8 +20113,8 @@
       <c r="A400" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="B400" s="43" t="s">
-        <v>471</v>
+      <c r="B400" s="43">
+        <v>267</v>
       </c>
       <c r="C400" s="9" t="s">
         <v>359</v>
@@ -20128,7 +20126,7 @@
         <v>462</v>
       </c>
       <c r="F400" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G400" s="8" t="s">
         <v>61</v>
@@ -20186,8 +20184,8 @@
       <c r="A401" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="B401" s="43" t="s">
-        <v>471</v>
+      <c r="B401" s="43">
+        <v>267</v>
       </c>
       <c r="C401" s="9" t="s">
         <v>359</v>
@@ -20199,7 +20197,7 @@
         <v>462</v>
       </c>
       <c r="F401" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G401" s="8" t="s">
         <v>61</v>
@@ -20270,7 +20268,7 @@
         <v>466</v>
       </c>
       <c r="F402" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G402" s="8" t="s">
         <v>41</v>
@@ -20317,7 +20315,7 @@
         <v>466</v>
       </c>
       <c r="F403" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G403" s="8" t="s">
         <v>41</v>
@@ -20361,10 +20359,10 @@
         <v>114</v>
       </c>
       <c r="E404" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="F404" s="8" t="s">
         <v>475</v>
-      </c>
-      <c r="F404" s="8" t="s">
-        <v>476</v>
       </c>
       <c r="G404" s="8" t="s">
         <v>363</v>
@@ -20432,10 +20430,10 @@
         <v>114</v>
       </c>
       <c r="E405" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F405" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G405" s="8" t="s">
         <v>363</v>
@@ -20503,10 +20501,10 @@
         <v>114</v>
       </c>
       <c r="E406" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F406" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G406" s="8" t="s">
         <v>363</v>
@@ -20574,10 +20572,10 @@
         <v>114</v>
       </c>
       <c r="E407" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F407" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G407" s="8" t="s">
         <v>45</v>
@@ -20645,10 +20643,10 @@
         <v>114</v>
       </c>
       <c r="E408" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F408" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G408" s="13" t="s">
         <v>69</v>
@@ -20704,7 +20702,7 @@
     </row>
     <row r="409" spans="1:23" s="21" customFormat="1" ht="45">
       <c r="A409" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B409" s="45">
         <v>267</v>
@@ -20716,10 +20714,10 @@
         <v>16</v>
       </c>
       <c r="E409" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="F409" s="18" t="s">
         <v>482</v>
-      </c>
-      <c r="F409" s="18" t="s">
-        <v>483</v>
       </c>
       <c r="G409" s="18" t="s">
         <v>22</v>
@@ -20739,7 +20737,7 @@
     </row>
     <row r="410" spans="1:23" s="21" customFormat="1" ht="45">
       <c r="A410" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B410" s="45">
         <v>267</v>
@@ -20751,10 +20749,10 @@
         <v>16</v>
       </c>
       <c r="E410" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F410" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G410" s="18" t="s">
         <v>22</v>
@@ -20774,7 +20772,7 @@
     </row>
     <row r="411" spans="1:23" s="21" customFormat="1" ht="45">
       <c r="A411" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B411" s="45">
         <v>267</v>
@@ -20786,10 +20784,10 @@
         <v>16</v>
       </c>
       <c r="E411" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F411" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G411" s="18" t="s">
         <v>22</v>
@@ -20809,7 +20807,7 @@
     </row>
     <row r="412" spans="1:23" s="21" customFormat="1" ht="30">
       <c r="A412" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B412" s="45">
         <v>267</v>
@@ -20821,10 +20819,10 @@
         <v>16</v>
       </c>
       <c r="E412" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F412" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G412" s="18" t="s">
         <v>22</v>
@@ -20844,7 +20842,7 @@
     </row>
     <row r="413" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A413" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B413" s="45">
         <v>267</v>
@@ -20856,10 +20854,10 @@
         <v>16</v>
       </c>
       <c r="E413" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F413" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G413" s="18" t="s">
         <v>22</v>
@@ -20879,7 +20877,7 @@
     </row>
     <row r="414" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A414" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B414" s="45">
         <v>267</v>
@@ -20891,10 +20889,10 @@
         <v>16</v>
       </c>
       <c r="E414" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F414" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G414" s="18" t="s">
         <v>353</v>
@@ -20914,7 +20912,7 @@
     </row>
     <row r="415" spans="1:23" s="21" customFormat="1" ht="45">
       <c r="A415" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B415" s="45">
         <v>267</v>
@@ -20926,10 +20924,10 @@
         <v>16</v>
       </c>
       <c r="E415" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="F415" s="18" t="s">
         <v>489</v>
-      </c>
-      <c r="F415" s="18" t="s">
-        <v>490</v>
       </c>
       <c r="G415" s="18" t="s">
         <v>22</v>
@@ -20949,7 +20947,7 @@
     </row>
     <row r="416" spans="1:23" s="21" customFormat="1" ht="30">
       <c r="A416" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B416" s="45">
         <v>267</v>
@@ -20961,10 +20959,10 @@
         <v>16</v>
       </c>
       <c r="E416" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F416" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G416" s="18" t="s">
         <v>22</v>
@@ -20984,7 +20982,7 @@
     </row>
     <row r="417" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A417" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B417" s="45">
         <v>267</v>
@@ -20996,10 +20994,10 @@
         <v>16</v>
       </c>
       <c r="E417" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F417" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G417" s="18" t="s">
         <v>22</v>
@@ -21019,7 +21017,7 @@
     </row>
     <row r="418" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A418" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B418" s="45">
         <v>267</v>
@@ -21031,10 +21029,10 @@
         <v>16</v>
       </c>
       <c r="E418" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F418" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G418" s="18" t="s">
         <v>22</v>
@@ -21054,7 +21052,7 @@
     </row>
     <row r="419" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A419" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B419" s="45">
         <v>267</v>
@@ -21066,10 +21064,10 @@
         <v>16</v>
       </c>
       <c r="E419" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F419" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G419" s="18" t="s">
         <v>22</v>
@@ -21089,7 +21087,7 @@
     </row>
     <row r="420" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A420" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B420" s="45">
         <v>267</v>
@@ -21101,10 +21099,10 @@
         <v>63</v>
       </c>
       <c r="E420" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="F420" s="18" t="s">
         <v>495</v>
-      </c>
-      <c r="F420" s="18" t="s">
-        <v>496</v>
       </c>
       <c r="G420" s="18" t="s">
         <v>61</v>
@@ -21124,7 +21122,7 @@
     </row>
     <row r="421" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A421" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B421" s="45">
         <v>267</v>
@@ -21136,10 +21134,10 @@
         <v>63</v>
       </c>
       <c r="E421" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F421" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G421" s="18" t="s">
         <v>61</v>
@@ -21159,7 +21157,7 @@
     </row>
     <row r="422" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A422" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B422" s="45">
         <v>267</v>
@@ -21171,10 +21169,10 @@
         <v>63</v>
       </c>
       <c r="E422" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="F422" s="18" t="s">
         <v>498</v>
-      </c>
-      <c r="F422" s="18" t="s">
-        <v>499</v>
       </c>
       <c r="G422" s="18" t="s">
         <v>61</v>
@@ -21194,7 +21192,7 @@
     </row>
     <row r="423" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A423" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B423" s="45">
         <v>267</v>
@@ -21206,10 +21204,10 @@
         <v>63</v>
       </c>
       <c r="E423" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F423" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G423" s="18" t="s">
         <v>133</v>
@@ -21229,7 +21227,7 @@
     </row>
     <row r="424" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A424" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B424" s="45">
         <v>267</v>
@@ -21241,10 +21239,10 @@
         <v>63</v>
       </c>
       <c r="E424" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F424" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G424" s="18" t="s">
         <v>61</v>
@@ -21264,7 +21262,7 @@
     </row>
     <row r="425" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A425" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B425" s="45">
         <v>267</v>
@@ -21276,10 +21274,10 @@
         <v>63</v>
       </c>
       <c r="E425" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F425" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G425" s="18" t="s">
         <v>61</v>
@@ -21299,7 +21297,7 @@
     </row>
     <row r="426" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A426" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B426" s="45">
         <v>267</v>
@@ -21311,10 +21309,10 @@
         <v>63</v>
       </c>
       <c r="E426" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F426" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G426" s="18" t="s">
         <v>34</v>
@@ -21334,7 +21332,7 @@
     </row>
     <row r="427" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A427" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B427" s="45">
         <v>267</v>
@@ -21346,10 +21344,10 @@
         <v>63</v>
       </c>
       <c r="E427" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F427" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G427" s="18" t="s">
         <v>34</v>
@@ -21369,7 +21367,7 @@
     </row>
     <row r="428" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A428" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B428" s="45">
         <v>267</v>
@@ -21381,10 +21379,10 @@
         <v>63</v>
       </c>
       <c r="E428" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F428" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G428" s="18" t="s">
         <v>45</v>
@@ -21404,7 +21402,7 @@
     </row>
     <row r="429" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A429" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B429" s="45">
         <v>267</v>
@@ -21416,10 +21414,10 @@
         <v>63</v>
       </c>
       <c r="E429" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F429" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G429" s="18" t="s">
         <v>189</v>
@@ -21439,7 +21437,7 @@
     </row>
     <row r="430" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A430" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B430" s="45">
         <v>267</v>
@@ -21451,10 +21449,10 @@
         <v>63</v>
       </c>
       <c r="E430" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F430" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G430" s="18" t="s">
         <v>45</v>
@@ -21474,7 +21472,7 @@
     </row>
     <row r="431" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A431" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B431" s="45">
         <v>267</v>
@@ -21486,10 +21484,10 @@
         <v>63</v>
       </c>
       <c r="E431" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F431" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G431" s="18" t="s">
         <v>45</v>
@@ -21509,7 +21507,7 @@
     </row>
     <row r="432" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A432" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B432" s="45">
         <v>267</v>
@@ -21521,10 +21519,10 @@
         <v>63</v>
       </c>
       <c r="E432" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F432" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G432" s="18" t="s">
         <v>41</v>
@@ -21544,7 +21542,7 @@
     </row>
     <row r="433" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A433" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B433" s="45">
         <v>267</v>
@@ -21556,10 +21554,10 @@
         <v>63</v>
       </c>
       <c r="E433" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F433" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G433" s="18" t="s">
         <v>41</v>
@@ -21579,7 +21577,7 @@
     </row>
     <row r="434" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A434" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B434" s="45">
         <v>267</v>
@@ -21591,10 +21589,10 @@
         <v>63</v>
       </c>
       <c r="E434" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F434" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G434" s="18" t="s">
         <v>41</v>
@@ -21614,7 +21612,7 @@
     </row>
     <row r="435" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A435" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B435" s="45">
         <v>267</v>
@@ -21626,10 +21624,10 @@
         <v>63</v>
       </c>
       <c r="E435" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F435" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G435" s="18" t="s">
         <v>189</v>
@@ -21649,7 +21647,7 @@
     </row>
     <row r="436" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A436" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B436" s="45">
         <v>267</v>
@@ -21661,10 +21659,10 @@
         <v>63</v>
       </c>
       <c r="E436" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F436" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G436" s="18" t="s">
         <v>45</v>
@@ -21684,7 +21682,7 @@
     </row>
     <row r="437" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A437" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B437" s="45">
         <v>267</v>
@@ -21696,10 +21694,10 @@
         <v>63</v>
       </c>
       <c r="E437" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F437" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G437" s="18" t="s">
         <v>45</v>
@@ -21719,7 +21717,7 @@
     </row>
     <row r="438" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A438" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B438" s="45">
         <v>267</v>
@@ -21731,10 +21729,10 @@
         <v>63</v>
       </c>
       <c r="E438" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F438" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G438" s="18" t="s">
         <v>61</v>
@@ -21754,7 +21752,7 @@
     </row>
     <row r="439" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A439" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B439" s="45">
         <v>267</v>
@@ -21766,10 +21764,10 @@
         <v>63</v>
       </c>
       <c r="E439" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F439" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G439" s="18" t="s">
         <v>61</v>
@@ -21789,7 +21787,7 @@
     </row>
     <row r="440" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A440" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B440" s="45">
         <v>267</v>
@@ -21801,10 +21799,10 @@
         <v>63</v>
       </c>
       <c r="E440" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F440" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G440" s="18" t="s">
         <v>41</v>
@@ -21824,7 +21822,7 @@
     </row>
     <row r="441" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A441" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B441" s="45">
         <v>267</v>
@@ -21836,10 +21834,10 @@
         <v>63</v>
       </c>
       <c r="E441" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F441" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G441" s="18" t="s">
         <v>45</v>
@@ -21859,7 +21857,7 @@
     </row>
     <row r="442" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A442" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B442" s="45">
         <v>267</v>
@@ -21871,10 +21869,10 @@
         <v>63</v>
       </c>
       <c r="E442" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F442" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G442" s="18" t="s">
         <v>61</v>
@@ -21894,7 +21892,7 @@
     </row>
     <row r="443" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A443" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B443" s="45">
         <v>267</v>
@@ -21906,10 +21904,10 @@
         <v>63</v>
       </c>
       <c r="E443" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F443" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G443" s="18" t="s">
         <v>51</v>
@@ -21929,7 +21927,7 @@
     </row>
     <row r="444" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A444" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B444" s="45">
         <v>267</v>
@@ -21941,13 +21939,13 @@
         <v>63</v>
       </c>
       <c r="E444" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F444" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="G444" s="18" t="s">
         <v>521</v>
-      </c>
-      <c r="G444" s="18" t="s">
-        <v>522</v>
       </c>
       <c r="H444" s="20">
         <v>44158.786805555559</v>
@@ -21964,7 +21962,7 @@
     </row>
     <row r="445" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A445" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B445" s="45">
         <v>267</v>
@@ -21976,10 +21974,10 @@
         <v>63</v>
       </c>
       <c r="E445" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F445" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G445" s="18" t="s">
         <v>41</v>
@@ -21999,7 +21997,7 @@
     </row>
     <row r="446" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A446" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B446" s="45">
         <v>267</v>
@@ -22011,10 +22009,10 @@
         <v>63</v>
       </c>
       <c r="E446" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F446" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G446" s="18" t="s">
         <v>51</v>
@@ -22034,7 +22032,7 @@
     </row>
     <row r="447" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A447" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B447" s="45">
         <v>267</v>
@@ -22046,10 +22044,10 @@
         <v>63</v>
       </c>
       <c r="E447" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F447" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G447" s="18" t="s">
         <v>69</v>
@@ -22069,7 +22067,7 @@
     </row>
     <row r="448" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A448" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B448" s="45">
         <v>267</v>
@@ -22081,10 +22079,10 @@
         <v>63</v>
       </c>
       <c r="E448" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F448" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G448" s="18" t="s">
         <v>51</v>
@@ -22104,7 +22102,7 @@
     </row>
     <row r="449" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A449" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B449" s="45">
         <v>267</v>
@@ -22116,10 +22114,10 @@
         <v>63</v>
       </c>
       <c r="E449" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F449" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G449" s="18" t="s">
         <v>41</v>
@@ -22139,7 +22137,7 @@
     </row>
     <row r="450" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A450" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B450" s="45">
         <v>267</v>
@@ -22151,10 +22149,10 @@
         <v>63</v>
       </c>
       <c r="E450" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F450" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G450" s="18" t="s">
         <v>69</v>
@@ -22174,7 +22172,7 @@
     </row>
     <row r="451" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A451" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B451" s="45">
         <v>267</v>
@@ -22186,10 +22184,10 @@
         <v>63</v>
       </c>
       <c r="E451" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F451" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G451" s="18" t="s">
         <v>41</v>
@@ -22209,7 +22207,7 @@
     </row>
     <row r="452" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A452" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B452" s="45">
         <v>267</v>
@@ -22221,10 +22219,10 @@
         <v>63</v>
       </c>
       <c r="E452" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F452" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G452" s="18" t="s">
         <v>41</v>
@@ -22244,7 +22242,7 @@
     </row>
     <row r="453" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A453" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B453" s="45">
         <v>267</v>
@@ -22256,10 +22254,10 @@
         <v>63</v>
       </c>
       <c r="E453" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F453" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G453" s="18" t="s">
         <v>41</v>
@@ -22279,7 +22277,7 @@
     </row>
     <row r="454" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A454" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B454" s="45">
         <v>267</v>
@@ -22291,10 +22289,10 @@
         <v>63</v>
       </c>
       <c r="E454" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F454" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G454" s="18" t="s">
         <v>189</v>
@@ -22314,7 +22312,7 @@
     </row>
     <row r="455" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A455" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B455" s="45">
         <v>267</v>
@@ -22326,10 +22324,10 @@
         <v>63</v>
       </c>
       <c r="E455" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F455" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G455" s="18" t="s">
         <v>41</v>
@@ -22349,7 +22347,7 @@
     </row>
     <row r="456" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A456" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B456" s="45">
         <v>267</v>
@@ -22361,10 +22359,10 @@
         <v>63</v>
       </c>
       <c r="E456" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F456" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G456" s="18" t="s">
         <v>91</v>
@@ -22384,7 +22382,7 @@
     </row>
     <row r="457" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A457" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B457" s="45">
         <v>267</v>
@@ -22396,10 +22394,10 @@
         <v>63</v>
       </c>
       <c r="E457" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F457" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G457" s="18" t="s">
         <v>189</v>
@@ -22419,7 +22417,7 @@
     </row>
     <row r="458" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A458" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B458" s="45">
         <v>267</v>
@@ -22431,10 +22429,10 @@
         <v>63</v>
       </c>
       <c r="E458" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F458" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G458" s="18" t="s">
         <v>189</v>
@@ -22454,7 +22452,7 @@
     </row>
     <row r="459" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A459" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B459" s="45">
         <v>267</v>
@@ -22466,10 +22464,10 @@
         <v>63</v>
       </c>
       <c r="E459" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F459" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G459" s="18" t="s">
         <v>41</v>
@@ -22489,7 +22487,7 @@
     </row>
     <row r="460" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A460" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B460" s="45">
         <v>267</v>
@@ -22501,10 +22499,10 @@
         <v>92</v>
       </c>
       <c r="E460" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="F460" s="18" t="s">
         <v>537</v>
-      </c>
-      <c r="F460" s="18" t="s">
-        <v>538</v>
       </c>
       <c r="G460" s="18" t="s">
         <v>133</v>
@@ -22524,7 +22522,7 @@
     </row>
     <row r="461" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A461" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B461" s="45">
         <v>267</v>
@@ -22536,10 +22534,10 @@
         <v>92</v>
       </c>
       <c r="E461" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F461" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G461" s="18" t="s">
         <v>61</v>
@@ -22559,7 +22557,7 @@
     </row>
     <row r="462" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A462" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B462" s="45">
         <v>267</v>
@@ -22571,10 +22569,10 @@
         <v>92</v>
       </c>
       <c r="E462" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="F462" s="18" t="s">
         <v>540</v>
-      </c>
-      <c r="F462" s="18" t="s">
-        <v>541</v>
       </c>
       <c r="G462" s="18" t="s">
         <v>61</v>
@@ -22594,7 +22592,7 @@
     </row>
     <row r="463" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A463" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B463" s="45">
         <v>267</v>
@@ -22606,10 +22604,10 @@
         <v>92</v>
       </c>
       <c r="E463" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F463" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G463" s="18" t="s">
         <v>61</v>
@@ -22629,7 +22627,7 @@
     </row>
     <row r="464" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A464" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B464" s="45">
         <v>267</v>
@@ -22641,10 +22639,10 @@
         <v>92</v>
       </c>
       <c r="E464" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F464" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G464" s="18" t="s">
         <v>61</v>
@@ -22664,7 +22662,7 @@
     </row>
     <row r="465" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A465" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B465" s="45">
         <v>267</v>
@@ -22676,10 +22674,10 @@
         <v>92</v>
       </c>
       <c r="E465" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F465" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G465" s="18" t="s">
         <v>41</v>
@@ -22699,7 +22697,7 @@
     </row>
     <row r="466" spans="1:11" s="21" customFormat="1" ht="45">
       <c r="A466" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B466" s="45">
         <v>267</v>
@@ -22711,10 +22709,10 @@
         <v>92</v>
       </c>
       <c r="E466" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F466" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G466" s="18" t="s">
         <v>22</v>
@@ -22734,7 +22732,7 @@
     </row>
     <row r="467" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A467" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B467" s="45">
         <v>267</v>
@@ -22746,10 +22744,10 @@
         <v>92</v>
       </c>
       <c r="E467" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F467" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G467" s="18" t="s">
         <v>22</v>
@@ -22769,7 +22767,7 @@
     </row>
     <row r="468" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A468" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B468" s="45">
         <v>267</v>
@@ -22781,10 +22779,10 @@
         <v>92</v>
       </c>
       <c r="E468" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F468" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G468" s="18" t="s">
         <v>22</v>
@@ -22804,7 +22802,7 @@
     </row>
     <row r="469" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A469" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B469" s="45">
         <v>267</v>
@@ -22816,10 +22814,10 @@
         <v>92</v>
       </c>
       <c r="E469" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="F469" s="18" t="s">
         <v>548</v>
-      </c>
-      <c r="F469" s="18" t="s">
-        <v>549</v>
       </c>
       <c r="G469" s="18" t="s">
         <v>22</v>
@@ -22839,7 +22837,7 @@
     </row>
     <row r="470" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A470" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B470" s="45">
         <v>267</v>
@@ -22851,10 +22849,10 @@
         <v>99</v>
       </c>
       <c r="E470" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="F470" s="18" t="s">
         <v>550</v>
-      </c>
-      <c r="F470" s="18" t="s">
-        <v>551</v>
       </c>
       <c r="G470" s="18" t="s">
         <v>61</v>
@@ -22874,7 +22872,7 @@
     </row>
     <row r="471" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A471" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B471" s="45">
         <v>267</v>
@@ -22886,10 +22884,10 @@
         <v>99</v>
       </c>
       <c r="E471" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F471" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G471" s="18" t="s">
         <v>61</v>
@@ -22909,7 +22907,7 @@
     </row>
     <row r="472" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A472" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B472" s="45">
         <v>267</v>
@@ -22921,10 +22919,10 @@
         <v>99</v>
       </c>
       <c r="E472" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F472" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G472" s="18" t="s">
         <v>61</v>
@@ -22944,7 +22942,7 @@
     </row>
     <row r="473" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A473" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B473" s="45">
         <v>267</v>
@@ -22956,10 +22954,10 @@
         <v>99</v>
       </c>
       <c r="E473" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="F473" s="18" t="s">
         <v>554</v>
-      </c>
-      <c r="F473" s="18" t="s">
-        <v>555</v>
       </c>
       <c r="G473" s="18" t="s">
         <v>61</v>
@@ -22979,7 +22977,7 @@
     </row>
     <row r="474" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A474" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B474" s="45">
         <v>267</v>
@@ -22991,10 +22989,10 @@
         <v>99</v>
       </c>
       <c r="E474" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F474" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G474" s="18" t="s">
         <v>61</v>
@@ -23014,7 +23012,7 @@
     </row>
     <row r="475" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A475" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B475" s="45">
         <v>267</v>
@@ -23026,10 +23024,10 @@
         <v>99</v>
       </c>
       <c r="E475" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F475" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G475" s="18" t="s">
         <v>41</v>
@@ -23049,7 +23047,7 @@
     </row>
     <row r="476" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A476" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B476" s="45">
         <v>267</v>
@@ -23061,10 +23059,10 @@
         <v>99</v>
       </c>
       <c r="E476" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F476" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G476" s="18" t="s">
         <v>34</v>
@@ -23084,7 +23082,7 @@
     </row>
     <row r="477" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A477" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B477" s="45">
         <v>267</v>
@@ -23096,10 +23094,10 @@
         <v>99</v>
       </c>
       <c r="E477" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F477" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G477" s="18" t="s">
         <v>61</v>
@@ -23119,7 +23117,7 @@
     </row>
     <row r="478" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A478" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B478" s="45">
         <v>267</v>
@@ -23131,10 +23129,10 @@
         <v>99</v>
       </c>
       <c r="E478" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F478" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G478" s="18" t="s">
         <v>45</v>
@@ -23154,7 +23152,7 @@
     </row>
     <row r="479" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A479" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B479" s="45">
         <v>267</v>
@@ -23166,10 +23164,10 @@
         <v>99</v>
       </c>
       <c r="E479" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F479" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G479" s="18" t="s">
         <v>61</v>
@@ -23189,7 +23187,7 @@
     </row>
     <row r="480" spans="1:11" s="21" customFormat="1" ht="45">
       <c r="A480" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B480" s="45">
         <v>267</v>
@@ -23204,7 +23202,7 @@
         <v>64</v>
       </c>
       <c r="F480" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G480" s="18" t="s">
         <v>22</v>
@@ -23224,7 +23222,7 @@
     </row>
     <row r="481" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A481" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B481" s="45">
         <v>267</v>
@@ -23239,7 +23237,7 @@
         <v>64</v>
       </c>
       <c r="F481" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G481" s="18" t="s">
         <v>22</v>
@@ -23259,7 +23257,7 @@
     </row>
     <row r="482" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A482" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" s="45">
         <v>267</v>
@@ -23274,7 +23272,7 @@
         <v>64</v>
       </c>
       <c r="F482" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G482" s="18" t="s">
         <v>22</v>
@@ -23294,7 +23292,7 @@
     </row>
     <row r="483" spans="1:11" s="25" customFormat="1" ht="45">
       <c r="A483" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B483" s="46">
         <v>267</v>
@@ -23309,7 +23307,7 @@
         <v>64</v>
       </c>
       <c r="F483" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G483" s="22" t="s">
         <v>22</v>
@@ -23329,7 +23327,7 @@
     </row>
     <row r="484" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A484" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B484" s="47">
         <v>267</v>
@@ -23341,10 +23339,10 @@
         <v>16</v>
       </c>
       <c r="E484" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="F484" s="26" t="s">
         <v>567</v>
-      </c>
-      <c r="F484" s="26" t="s">
-        <v>568</v>
       </c>
       <c r="G484" s="26" t="s">
         <v>22</v>
@@ -23364,7 +23362,7 @@
     </row>
     <row r="485" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A485" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B485" s="47">
         <v>267</v>
@@ -23376,10 +23374,10 @@
         <v>16</v>
       </c>
       <c r="E485" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F485" s="41" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G485" s="26" t="s">
         <v>22</v>
@@ -23399,7 +23397,7 @@
     </row>
     <row r="486" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A486" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B486" s="47">
         <v>267</v>
@@ -23411,10 +23409,10 @@
         <v>16</v>
       </c>
       <c r="E486" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F486" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G486" s="26" t="s">
         <v>22</v>
@@ -23434,7 +23432,7 @@
     </row>
     <row r="487" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A487" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B487" s="47">
         <v>267</v>
@@ -23446,10 +23444,10 @@
         <v>16</v>
       </c>
       <c r="E487" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F487" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G487" s="26" t="s">
         <v>22</v>
@@ -23469,7 +23467,7 @@
     </row>
     <row r="488" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A488" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B488" s="47">
         <v>267</v>
@@ -23481,10 +23479,10 @@
         <v>16</v>
       </c>
       <c r="E488" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F488" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G488" s="26" t="s">
         <v>22</v>
@@ -23504,7 +23502,7 @@
     </row>
     <row r="489" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A489" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B489" s="47">
         <v>267</v>
@@ -23516,10 +23514,10 @@
         <v>16</v>
       </c>
       <c r="E489" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F489" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G489" s="26" t="s">
         <v>22</v>
@@ -23539,7 +23537,7 @@
     </row>
     <row r="490" spans="1:11" s="29" customFormat="1" ht="90">
       <c r="A490" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B490" s="47">
         <v>267</v>
@@ -23551,13 +23549,13 @@
         <v>16</v>
       </c>
       <c r="E490" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F490" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="G490" s="26" t="s">
         <v>574</v>
-      </c>
-      <c r="G490" s="26" t="s">
-        <v>575</v>
       </c>
       <c r="H490" s="28">
         <v>44162.863194444442</v>
@@ -23574,7 +23572,7 @@
     </row>
     <row r="491" spans="1:11" s="29" customFormat="1" ht="90">
       <c r="A491" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B491" s="47">
         <v>267</v>
@@ -23586,10 +23584,10 @@
         <v>16</v>
       </c>
       <c r="E491" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F491" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G491" s="26" t="s">
         <v>22</v>
@@ -23609,7 +23607,7 @@
     </row>
     <row r="492" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A492" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B492" s="47">
         <v>267</v>
@@ -23621,13 +23619,13 @@
         <v>16</v>
       </c>
       <c r="E492" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F492" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="G492" s="26" t="s">
         <v>577</v>
-      </c>
-      <c r="G492" s="26" t="s">
-        <v>578</v>
       </c>
       <c r="H492" s="28">
         <v>44162.863194444442</v>
@@ -23644,7 +23642,7 @@
     </row>
     <row r="493" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A493" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B493" s="47">
         <v>267</v>
@@ -23656,10 +23654,10 @@
         <v>16</v>
       </c>
       <c r="E493" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F493" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G493" s="26" t="s">
         <v>22</v>
@@ -23679,7 +23677,7 @@
     </row>
     <row r="494" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A494" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B494" s="47">
         <v>267</v>
@@ -23691,10 +23689,10 @@
         <v>16</v>
       </c>
       <c r="E494" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F494" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G494" s="26" t="s">
         <v>22</v>
@@ -23714,7 +23712,7 @@
     </row>
     <row r="495" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A495" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B495" s="47">
         <v>267</v>
@@ -23726,10 +23724,10 @@
         <v>16</v>
       </c>
       <c r="E495" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F495" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G495" s="26" t="s">
         <v>45</v>
@@ -23749,7 +23747,7 @@
     </row>
     <row r="496" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A496" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B496" s="47">
         <v>267</v>
@@ -23761,10 +23759,10 @@
         <v>63</v>
       </c>
       <c r="E496" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="F496" s="26" t="s">
         <v>582</v>
-      </c>
-      <c r="F496" s="26" t="s">
-        <v>583</v>
       </c>
       <c r="G496" s="26" t="s">
         <v>133</v>
@@ -23784,7 +23782,7 @@
     </row>
     <row r="497" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A497" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B497" s="47">
         <v>267</v>
@@ -23796,10 +23794,10 @@
         <v>63</v>
       </c>
       <c r="E497" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F497" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G497" s="26" t="s">
         <v>363</v>
@@ -23819,7 +23817,7 @@
     </row>
     <row r="498" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A498" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B498" s="47">
         <v>267</v>
@@ -23831,10 +23829,10 @@
         <v>63</v>
       </c>
       <c r="E498" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="F498" s="26" t="s">
         <v>585</v>
-      </c>
-      <c r="F498" s="26" t="s">
-        <v>586</v>
       </c>
       <c r="G498" s="26" t="s">
         <v>41</v>
@@ -23854,7 +23852,7 @@
     </row>
     <row r="499" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A499" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B499" s="47">
         <v>267</v>
@@ -23866,10 +23864,10 @@
         <v>63</v>
       </c>
       <c r="E499" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F499" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G499" s="26" t="s">
         <v>22</v>
@@ -23889,7 +23887,7 @@
     </row>
     <row r="500" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A500" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B500" s="47">
         <v>267</v>
@@ -23901,10 +23899,10 @@
         <v>63</v>
       </c>
       <c r="E500" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F500" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G500" s="26" t="s">
         <v>22</v>
@@ -23924,7 +23922,7 @@
     </row>
     <row r="501" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A501" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B501" s="47">
         <v>267</v>
@@ -23936,10 +23934,10 @@
         <v>63</v>
       </c>
       <c r="E501" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="F501" s="26" t="s">
         <v>589</v>
-      </c>
-      <c r="F501" s="26" t="s">
-        <v>590</v>
       </c>
       <c r="G501" s="26" t="s">
         <v>22</v>
@@ -23959,7 +23957,7 @@
     </row>
     <row r="502" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A502" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B502" s="47">
         <v>267</v>
@@ -23971,10 +23969,10 @@
         <v>63</v>
       </c>
       <c r="E502" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F502" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G502" s="26" t="s">
         <v>22</v>
@@ -23994,7 +23992,7 @@
     </row>
     <row r="503" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A503" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B503" s="47">
         <v>267</v>
@@ -24006,10 +24004,10 @@
         <v>63</v>
       </c>
       <c r="E503" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F503" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G503" s="26" t="s">
         <v>22</v>
@@ -24029,7 +24027,7 @@
     </row>
     <row r="504" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A504" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B504" s="47">
         <v>267</v>
@@ -24041,10 +24039,10 @@
         <v>63</v>
       </c>
       <c r="E504" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F504" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G504" s="26" t="s">
         <v>22</v>
@@ -24064,7 +24062,7 @@
     </row>
     <row r="505" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A505" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B505" s="47">
         <v>267</v>
@@ -24076,10 +24074,10 @@
         <v>92</v>
       </c>
       <c r="E505" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="F505" s="26" t="s">
         <v>594</v>
-      </c>
-      <c r="F505" s="26" t="s">
-        <v>595</v>
       </c>
       <c r="G505" s="26" t="s">
         <v>133</v>
@@ -24099,7 +24097,7 @@
     </row>
     <row r="506" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A506" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B506" s="47">
         <v>267</v>
@@ -24111,10 +24109,10 @@
         <v>92</v>
       </c>
       <c r="E506" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F506" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G506" s="26" t="s">
         <v>61</v>
@@ -24134,7 +24132,7 @@
     </row>
     <row r="507" spans="1:11" s="29" customFormat="1" ht="60">
       <c r="A507" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B507" s="47">
         <v>267</v>
@@ -24146,10 +24144,10 @@
         <v>92</v>
       </c>
       <c r="E507" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F507" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G507" s="26" t="s">
         <v>61</v>
@@ -24169,7 +24167,7 @@
     </row>
     <row r="508" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A508" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B508" s="47">
         <v>267</v>
@@ -24181,10 +24179,10 @@
         <v>92</v>
       </c>
       <c r="E508" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F508" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G508" s="26" t="s">
         <v>45</v>
@@ -24204,7 +24202,7 @@
     </row>
     <row r="509" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A509" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B509" s="47">
         <v>267</v>
@@ -24216,10 +24214,10 @@
         <v>92</v>
       </c>
       <c r="E509" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F509" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G509" s="26" t="s">
         <v>51</v>
@@ -24239,7 +24237,7 @@
     </row>
     <row r="510" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A510" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B510" s="47">
         <v>267</v>
@@ -24251,10 +24249,10 @@
         <v>92</v>
       </c>
       <c r="E510" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F510" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G510" s="26" t="s">
         <v>51</v>
@@ -24274,7 +24272,7 @@
     </row>
     <row r="511" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A511" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B511" s="47">
         <v>267</v>
@@ -24286,13 +24284,13 @@
         <v>92</v>
       </c>
       <c r="E511" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F511" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="G511" s="26" t="s">
         <v>601</v>
-      </c>
-      <c r="G511" s="26" t="s">
-        <v>602</v>
       </c>
       <c r="H511" s="28">
         <v>44154.796527777777</v>
@@ -24309,7 +24307,7 @@
     </row>
     <row r="512" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A512" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B512" s="47">
         <v>267</v>
@@ -24321,10 +24319,10 @@
         <v>92</v>
       </c>
       <c r="E512" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="F512" s="26" t="s">
         <v>603</v>
-      </c>
-      <c r="F512" s="26" t="s">
-        <v>604</v>
       </c>
       <c r="G512" s="26" t="s">
         <v>41</v>
@@ -24344,7 +24342,7 @@
     </row>
     <row r="513" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A513" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B513" s="47">
         <v>267</v>
@@ -24356,10 +24354,10 @@
         <v>92</v>
       </c>
       <c r="E513" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F513" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G513" s="26" t="s">
         <v>22</v>
@@ -24379,7 +24377,7 @@
     </row>
     <row r="514" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A514" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B514" s="47">
         <v>267</v>
@@ -24391,10 +24389,10 @@
         <v>92</v>
       </c>
       <c r="E514" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F514" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G514" s="26" t="s">
         <v>22</v>
@@ -24414,7 +24412,7 @@
     </row>
     <row r="515" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A515" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B515" s="47">
         <v>267</v>
@@ -24426,10 +24424,10 @@
         <v>92</v>
       </c>
       <c r="E515" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F515" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G515" s="26" t="s">
         <v>41</v>
@@ -24449,7 +24447,7 @@
     </row>
     <row r="516" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A516" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B516" s="47">
         <v>267</v>
@@ -24461,10 +24459,10 @@
         <v>92</v>
       </c>
       <c r="E516" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F516" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G516" s="26" t="s">
         <v>22</v>
@@ -24484,7 +24482,7 @@
     </row>
     <row r="517" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A517" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B517" s="47">
         <v>267</v>
@@ -24496,10 +24494,10 @@
         <v>92</v>
       </c>
       <c r="E517" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F517" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G517" s="26" t="s">
         <v>22</v>
@@ -24519,7 +24517,7 @@
     </row>
     <row r="518" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A518" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B518" s="47">
         <v>267</v>
@@ -24531,10 +24529,10 @@
         <v>92</v>
       </c>
       <c r="E518" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F518" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G518" s="26" t="s">
         <v>22</v>
@@ -24554,7 +24552,7 @@
     </row>
     <row r="519" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A519" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B519" s="47">
         <v>267</v>
@@ -24566,10 +24564,10 @@
         <v>92</v>
       </c>
       <c r="E519" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F519" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G519" s="26" t="s">
         <v>22</v>
@@ -24589,7 +24587,7 @@
     </row>
     <row r="520" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A520" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B520" s="47">
         <v>267</v>
@@ -24601,10 +24599,10 @@
         <v>92</v>
       </c>
       <c r="E520" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F520" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G520" s="26" t="s">
         <v>22</v>
@@ -24624,7 +24622,7 @@
     </row>
     <row r="521" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A521" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B521" s="47">
         <v>267</v>
@@ -24636,10 +24634,10 @@
         <v>92</v>
       </c>
       <c r="E521" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F521" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G521" s="26" t="s">
         <v>22</v>
@@ -24659,7 +24657,7 @@
     </row>
     <row r="522" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A522" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B522" s="47">
         <v>267</v>
@@ -24671,10 +24669,10 @@
         <v>92</v>
       </c>
       <c r="E522" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F522" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G522" s="26" t="s">
         <v>41</v>
@@ -24694,7 +24692,7 @@
     </row>
     <row r="523" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A523" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B523" s="47">
         <v>267</v>
@@ -24706,10 +24704,10 @@
         <v>92</v>
       </c>
       <c r="E523" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F523" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G523" s="26" t="s">
         <v>22</v>
@@ -24729,7 +24727,7 @@
     </row>
     <row r="524" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A524" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B524" s="47">
         <v>267</v>
@@ -24741,10 +24739,10 @@
         <v>92</v>
       </c>
       <c r="E524" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F524" s="26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G524" s="26" t="s">
         <v>22</v>
@@ -24764,7 +24762,7 @@
     </row>
     <row r="525" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A525" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B525" s="47">
         <v>267</v>
@@ -24776,10 +24774,10 @@
         <v>92</v>
       </c>
       <c r="E525" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F525" s="26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G525" s="26" t="s">
         <v>22</v>
@@ -24799,7 +24797,7 @@
     </row>
     <row r="526" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A526" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B526" s="47">
         <v>267</v>
@@ -24811,10 +24809,10 @@
         <v>92</v>
       </c>
       <c r="E526" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F526" s="26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G526" s="26" t="s">
         <v>22</v>
@@ -24834,7 +24832,7 @@
     </row>
     <row r="527" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A527" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B527" s="47">
         <v>267</v>
@@ -24846,10 +24844,10 @@
         <v>92</v>
       </c>
       <c r="E527" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F527" s="26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G527" s="26" t="s">
         <v>22</v>
@@ -24869,7 +24867,7 @@
     </row>
     <row r="528" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A528" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B528" s="47">
         <v>267</v>
@@ -24881,10 +24879,10 @@
         <v>92</v>
       </c>
       <c r="E528" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F528" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G528" s="26" t="s">
         <v>22</v>
@@ -24904,7 +24902,7 @@
     </row>
     <row r="529" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A529" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B529" s="47">
         <v>267</v>
@@ -24916,10 +24914,10 @@
         <v>92</v>
       </c>
       <c r="E529" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F529" s="26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G529" s="26" t="s">
         <v>22</v>
@@ -24939,7 +24937,7 @@
     </row>
     <row r="530" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A530" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B530" s="47">
         <v>267</v>
@@ -24951,10 +24949,10 @@
         <v>92</v>
       </c>
       <c r="E530" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F530" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G530" s="26" t="s">
         <v>22</v>
@@ -24974,7 +24972,7 @@
     </row>
     <row r="531" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A531" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B531" s="47">
         <v>267</v>
@@ -24986,10 +24984,10 @@
         <v>92</v>
       </c>
       <c r="E531" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F531" s="26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G531" s="26" t="s">
         <v>41</v>
@@ -25009,7 +25007,7 @@
     </row>
     <row r="532" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A532" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B532" s="47">
         <v>267</v>
@@ -25021,10 +25019,10 @@
         <v>92</v>
       </c>
       <c r="E532" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F532" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G532" s="26" t="s">
         <v>41</v>
@@ -25044,7 +25042,7 @@
     </row>
     <row r="533" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A533" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B533" s="47">
         <v>267</v>
@@ -25056,10 +25054,10 @@
         <v>92</v>
       </c>
       <c r="E533" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F533" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G533" s="26" t="s">
         <v>22</v>
@@ -25079,7 +25077,7 @@
     </row>
     <row r="534" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A534" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B534" s="47">
         <v>267</v>
@@ -25091,10 +25089,10 @@
         <v>92</v>
       </c>
       <c r="E534" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F534" s="26" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G534" s="26" t="s">
         <v>22</v>
@@ -25114,7 +25112,7 @@
     </row>
     <row r="535" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A535" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B535" s="47">
         <v>267</v>
@@ -25126,10 +25124,10 @@
         <v>92</v>
       </c>
       <c r="E535" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F535" s="26" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G535" s="26" t="s">
         <v>22</v>
@@ -25149,7 +25147,7 @@
     </row>
     <row r="536" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A536" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B536" s="47">
         <v>267</v>
@@ -25161,10 +25159,10 @@
         <v>92</v>
       </c>
       <c r="E536" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F536" s="26" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G536" s="26" t="s">
         <v>22</v>
@@ -25184,7 +25182,7 @@
     </row>
     <row r="537" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A537" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B537" s="47">
         <v>267</v>
@@ -25196,10 +25194,10 @@
         <v>92</v>
       </c>
       <c r="E537" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F537" s="26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G537" s="26" t="s">
         <v>22</v>
@@ -25219,7 +25217,7 @@
     </row>
     <row r="538" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A538" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B538" s="47">
         <v>267</v>
@@ -25231,10 +25229,10 @@
         <v>92</v>
       </c>
       <c r="E538" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F538" s="26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G538" s="26" t="s">
         <v>22</v>
@@ -25254,7 +25252,7 @@
     </row>
     <row r="539" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A539" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B539" s="47">
         <v>267</v>
@@ -25266,10 +25264,10 @@
         <v>92</v>
       </c>
       <c r="E539" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F539" s="26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G539" s="26" t="s">
         <v>22</v>
@@ -25289,7 +25287,7 @@
     </row>
     <row r="540" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A540" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B540" s="47">
         <v>267</v>
@@ -25301,10 +25299,10 @@
         <v>92</v>
       </c>
       <c r="E540" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F540" s="26" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G540" s="26" t="s">
         <v>41</v>
@@ -25324,7 +25322,7 @@
     </row>
     <row r="541" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A541" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B541" s="47">
         <v>267</v>
@@ -25336,10 +25334,10 @@
         <v>92</v>
       </c>
       <c r="E541" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F541" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G541" s="26" t="s">
         <v>41</v>
@@ -25359,7 +25357,7 @@
     </row>
     <row r="542" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A542" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B542" s="47">
         <v>267</v>
@@ -25371,10 +25369,10 @@
         <v>92</v>
       </c>
       <c r="E542" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F542" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G542" s="26" t="s">
         <v>22</v>
@@ -25394,7 +25392,7 @@
     </row>
     <row r="543" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A543" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B543" s="47">
         <v>267</v>
@@ -25406,10 +25404,10 @@
         <v>92</v>
       </c>
       <c r="E543" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F543" s="26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G543" s="26" t="s">
         <v>22</v>
@@ -25429,7 +25427,7 @@
     </row>
     <row r="544" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A544" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B544" s="47">
         <v>267</v>
@@ -25441,10 +25439,10 @@
         <v>92</v>
       </c>
       <c r="E544" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F544" s="26" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G544" s="26" t="s">
         <v>22</v>
@@ -25464,7 +25462,7 @@
     </row>
     <row r="545" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A545" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B545" s="47">
         <v>267</v>
@@ -25476,10 +25474,10 @@
         <v>92</v>
       </c>
       <c r="E545" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F545" s="26" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G545" s="26" t="s">
         <v>22</v>
@@ -25499,7 +25497,7 @@
     </row>
     <row r="546" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A546" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B546" s="47">
         <v>267</v>
@@ -25511,10 +25509,10 @@
         <v>92</v>
       </c>
       <c r="E546" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F546" s="26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G546" s="26" t="s">
         <v>22</v>
@@ -25534,7 +25532,7 @@
     </row>
     <row r="547" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A547" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B547" s="47">
         <v>267</v>
@@ -25546,10 +25544,10 @@
         <v>92</v>
       </c>
       <c r="E547" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F547" s="26" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G547" s="26" t="s">
         <v>22</v>
@@ -25569,7 +25567,7 @@
     </row>
     <row r="548" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A548" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B548" s="47">
         <v>267</v>
@@ -25581,10 +25579,10 @@
         <v>92</v>
       </c>
       <c r="E548" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F548" s="26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G548" s="26" t="s">
         <v>22</v>
@@ -25604,7 +25602,7 @@
     </row>
     <row r="549" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A549" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B549" s="47">
         <v>267</v>
@@ -25616,10 +25614,10 @@
         <v>92</v>
       </c>
       <c r="E549" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F549" s="26" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G549" s="26" t="s">
         <v>41</v>
@@ -25639,7 +25637,7 @@
     </row>
     <row r="550" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A550" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B550" s="47">
         <v>267</v>
@@ -25651,10 +25649,10 @@
         <v>92</v>
       </c>
       <c r="E550" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F550" s="26" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G550" s="26" t="s">
         <v>22</v>
@@ -25674,7 +25672,7 @@
     </row>
     <row r="551" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A551" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B551" s="47">
         <v>267</v>
@@ -25686,10 +25684,10 @@
         <v>92</v>
       </c>
       <c r="E551" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F551" s="26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G551" s="26" t="s">
         <v>22</v>
@@ -25709,7 +25707,7 @@
     </row>
     <row r="552" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A552" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B552" s="47">
         <v>267</v>
@@ -25721,10 +25719,10 @@
         <v>92</v>
       </c>
       <c r="E552" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F552" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G552" s="26" t="s">
         <v>22</v>
@@ -25744,7 +25742,7 @@
     </row>
     <row r="553" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A553" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B553" s="47">
         <v>267</v>
@@ -25756,10 +25754,10 @@
         <v>92</v>
       </c>
       <c r="E553" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F553" s="26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G553" s="26" t="s">
         <v>22</v>
@@ -25779,7 +25777,7 @@
     </row>
     <row r="554" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A554" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B554" s="47">
         <v>267</v>
@@ -25791,10 +25789,10 @@
         <v>92</v>
       </c>
       <c r="E554" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F554" s="26" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G554" s="26" t="s">
         <v>41</v>
@@ -25814,7 +25812,7 @@
     </row>
     <row r="555" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A555" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B555" s="47">
         <v>267</v>
@@ -25826,13 +25824,13 @@
         <v>92</v>
       </c>
       <c r="E555" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F555" s="26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G555" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H555" s="28">
         <v>44154.80972222222</v>
@@ -25849,7 +25847,7 @@
     </row>
     <row r="556" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A556" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B556" s="47">
         <v>267</v>
@@ -25861,13 +25859,13 @@
         <v>92</v>
       </c>
       <c r="E556" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F556" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G556" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H556" s="28">
         <v>44154.80972222222</v>
@@ -25884,7 +25882,7 @@
     </row>
     <row r="557" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A557" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B557" s="47">
         <v>267</v>
@@ -25896,13 +25894,13 @@
         <v>92</v>
       </c>
       <c r="E557" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F557" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G557" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H557" s="28">
         <v>44154.80972222222</v>
@@ -25919,7 +25917,7 @@
     </row>
     <row r="558" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A558" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B558" s="47">
         <v>267</v>
@@ -25931,10 +25929,10 @@
         <v>92</v>
       </c>
       <c r="E558" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F558" s="26" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G558" s="26" t="s">
         <v>41</v>
@@ -25954,7 +25952,7 @@
     </row>
     <row r="559" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A559" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B559" s="47">
         <v>267</v>
@@ -25966,10 +25964,10 @@
         <v>92</v>
       </c>
       <c r="E559" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F559" s="26" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G559" s="26" t="s">
         <v>45</v>
@@ -25989,7 +25987,7 @@
     </row>
     <row r="560" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A560" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B560" s="47">
         <v>267</v>
@@ -26001,10 +25999,10 @@
         <v>92</v>
       </c>
       <c r="E560" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F560" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G560" s="26" t="s">
         <v>61</v>
@@ -26024,7 +26022,7 @@
     </row>
     <row r="561" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A561" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B561" s="47">
         <v>267</v>
@@ -26036,10 +26034,10 @@
         <v>92</v>
       </c>
       <c r="E561" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F561" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G561" s="26" t="s">
         <v>22</v>
@@ -26059,7 +26057,7 @@
     </row>
     <row r="562" spans="1:11" s="29" customFormat="1" ht="60">
       <c r="A562" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B562" s="47">
         <v>267</v>
@@ -26071,10 +26069,10 @@
         <v>92</v>
       </c>
       <c r="E562" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F562" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G562" s="26" t="s">
         <v>22</v>
@@ -26094,7 +26092,7 @@
     </row>
     <row r="563" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A563" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B563" s="47">
         <v>267</v>
@@ -26106,10 +26104,10 @@
         <v>92</v>
       </c>
       <c r="E563" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F563" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G563" s="26" t="s">
         <v>22</v>
@@ -26129,7 +26127,7 @@
     </row>
     <row r="564" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A564" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B564" s="47">
         <v>267</v>
@@ -26141,10 +26139,10 @@
         <v>92</v>
       </c>
       <c r="E564" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F564" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G564" s="26" t="s">
         <v>22</v>
@@ -26164,7 +26162,7 @@
     </row>
     <row r="565" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A565" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B565" s="47">
         <v>267</v>
@@ -26176,10 +26174,10 @@
         <v>92</v>
       </c>
       <c r="E565" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F565" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G565" s="26" t="s">
         <v>22</v>
@@ -26199,7 +26197,7 @@
     </row>
     <row r="566" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A566" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B566" s="47">
         <v>267</v>
@@ -26211,10 +26209,10 @@
         <v>92</v>
       </c>
       <c r="E566" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F566" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G566" s="26" t="s">
         <v>45</v>
@@ -26234,7 +26232,7 @@
     </row>
     <row r="567" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A567" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B567" s="47">
         <v>267</v>
@@ -26246,10 +26244,10 @@
         <v>92</v>
       </c>
       <c r="E567" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F567" s="26" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G567" s="26" t="s">
         <v>22</v>
@@ -26269,7 +26267,7 @@
     </row>
     <row r="568" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A568" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B568" s="47">
         <v>267</v>
@@ -26281,10 +26279,10 @@
         <v>92</v>
       </c>
       <c r="E568" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F568" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G568" s="26" t="s">
         <v>22</v>
@@ -26304,7 +26302,7 @@
     </row>
     <row r="569" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A569" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B569" s="47">
         <v>267</v>
@@ -26316,10 +26314,10 @@
         <v>92</v>
       </c>
       <c r="E569" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F569" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G569" s="26" t="s">
         <v>22</v>
@@ -26339,7 +26337,7 @@
     </row>
     <row r="570" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A570" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B570" s="47">
         <v>267</v>
@@ -26351,10 +26349,10 @@
         <v>92</v>
       </c>
       <c r="E570" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F570" s="26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G570" s="26" t="s">
         <v>41</v>
@@ -26374,7 +26372,7 @@
     </row>
     <row r="571" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A571" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B571" s="47">
         <v>267</v>
@@ -26386,10 +26384,10 @@
         <v>92</v>
       </c>
       <c r="E571" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F571" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G571" s="26" t="s">
         <v>41</v>
@@ -26409,7 +26407,7 @@
     </row>
     <row r="572" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A572" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B572" s="47">
         <v>267</v>
@@ -26421,10 +26419,10 @@
         <v>92</v>
       </c>
       <c r="E572" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F572" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G572" s="26" t="s">
         <v>22</v>
@@ -26444,7 +26442,7 @@
     </row>
     <row r="573" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A573" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B573" s="47">
         <v>267</v>
@@ -26456,10 +26454,10 @@
         <v>92</v>
       </c>
       <c r="E573" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F573" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G573" s="26" t="s">
         <v>22</v>
@@ -26479,7 +26477,7 @@
     </row>
     <row r="574" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A574" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B574" s="47">
         <v>267</v>
@@ -26491,10 +26489,10 @@
         <v>92</v>
       </c>
       <c r="E574" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F574" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G574" s="26" t="s">
         <v>22</v>
@@ -26514,7 +26512,7 @@
     </row>
     <row r="575" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A575" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B575" s="47">
         <v>267</v>
@@ -26526,10 +26524,10 @@
         <v>92</v>
       </c>
       <c r="E575" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F575" s="26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G575" s="26" t="s">
         <v>45</v>
@@ -26549,7 +26547,7 @@
     </row>
     <row r="576" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A576" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B576" s="47">
         <v>267</v>
@@ -26561,13 +26559,13 @@
         <v>92</v>
       </c>
       <c r="E576" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F576" s="26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G576" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H576" s="28">
         <v>44154.815972222219</v>
@@ -26584,7 +26582,7 @@
     </row>
     <row r="577" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A577" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B577" s="47">
         <v>267</v>
@@ -26596,10 +26594,10 @@
         <v>92</v>
       </c>
       <c r="E577" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F577" s="26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G577" s="26" t="s">
         <v>45</v>
@@ -26619,7 +26617,7 @@
     </row>
     <row r="578" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A578" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B578" s="47">
         <v>267</v>
@@ -26631,10 +26629,10 @@
         <v>92</v>
       </c>
       <c r="E578" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F578" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G578" s="26" t="s">
         <v>51</v>
@@ -26654,7 +26652,7 @@
     </row>
     <row r="579" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A579" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B579" s="47">
         <v>267</v>
@@ -26666,10 +26664,10 @@
         <v>92</v>
       </c>
       <c r="E579" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F579" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G579" s="26" t="s">
         <v>51</v>
@@ -26689,7 +26687,7 @@
     </row>
     <row r="580" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A580" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B580" s="47">
         <v>267</v>
@@ -26701,10 +26699,10 @@
         <v>92</v>
       </c>
       <c r="E580" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F580" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G580" s="26" t="s">
         <v>41</v>
@@ -26724,7 +26722,7 @@
     </row>
     <row r="581" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A581" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B581" s="47">
         <v>267</v>
@@ -26736,10 +26734,10 @@
         <v>92</v>
       </c>
       <c r="E581" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F581" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G581" s="26" t="s">
         <v>22</v>
@@ -26759,7 +26757,7 @@
     </row>
     <row r="582" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A582" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B582" s="47">
         <v>267</v>
@@ -26771,10 +26769,10 @@
         <v>92</v>
       </c>
       <c r="E582" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F582" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G582" s="26" t="s">
         <v>41</v>
@@ -26794,7 +26792,7 @@
     </row>
     <row r="583" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A583" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B583" s="47">
         <v>267</v>
@@ -26806,13 +26804,13 @@
         <v>92</v>
       </c>
       <c r="E583" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F583" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G583" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H583" s="28">
         <v>44154.817361111112</v>
@@ -26829,7 +26827,7 @@
     </row>
     <row r="584" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A584" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B584" s="47">
         <v>267</v>
@@ -26841,13 +26839,13 @@
         <v>92</v>
       </c>
       <c r="E584" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F584" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G584" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H584" s="28">
         <v>44154.817361111112</v>
@@ -26864,7 +26862,7 @@
     </row>
     <row r="585" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A585" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B585" s="47">
         <v>267</v>
@@ -26876,10 +26874,10 @@
         <v>92</v>
       </c>
       <c r="E585" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F585" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G585" s="26" t="s">
         <v>45</v>
@@ -26899,7 +26897,7 @@
     </row>
     <row r="586" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A586" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B586" s="47">
         <v>267</v>
@@ -26911,13 +26909,13 @@
         <v>92</v>
       </c>
       <c r="E586" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F586" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="G586" s="26" t="s">
         <v>677</v>
-      </c>
-      <c r="G586" s="26" t="s">
-        <v>678</v>
       </c>
       <c r="H586" s="28">
         <v>44154.818055555559</v>
@@ -26934,7 +26932,7 @@
     </row>
     <row r="587" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A587" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B587" s="47">
         <v>267</v>
@@ -26946,10 +26944,10 @@
         <v>92</v>
       </c>
       <c r="E587" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F587" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G587" s="26" t="s">
         <v>22</v>
@@ -26969,7 +26967,7 @@
     </row>
     <row r="588" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A588" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B588" s="47">
         <v>267</v>
@@ -26981,10 +26979,10 @@
         <v>92</v>
       </c>
       <c r="E588" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F588" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G588" s="26" t="s">
         <v>22</v>
@@ -27004,7 +27002,7 @@
     </row>
     <row r="589" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A589" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B589" s="47">
         <v>267</v>
@@ -27016,10 +27014,10 @@
         <v>92</v>
       </c>
       <c r="E589" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F589" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G589" s="26" t="s">
         <v>22</v>
@@ -27039,7 +27037,7 @@
     </row>
     <row r="590" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A590" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B590" s="47">
         <v>267</v>
@@ -27051,10 +27049,10 @@
         <v>92</v>
       </c>
       <c r="E590" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F590" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G590" s="26" t="s">
         <v>22</v>
@@ -27074,7 +27072,7 @@
     </row>
     <row r="591" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A591" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B591" s="47">
         <v>267</v>
@@ -27086,13 +27084,13 @@
         <v>92</v>
       </c>
       <c r="E591" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F591" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G591" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H591" s="28">
         <v>44154.819444444445</v>
@@ -27109,7 +27107,7 @@
     </row>
     <row r="592" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A592" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B592" s="47">
         <v>267</v>
@@ -27121,10 +27119,10 @@
         <v>92</v>
       </c>
       <c r="E592" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F592" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G592" s="26" t="s">
         <v>61</v>
@@ -27144,7 +27142,7 @@
     </row>
     <row r="593" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A593" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B593" s="47">
         <v>267</v>
@@ -27156,10 +27154,10 @@
         <v>92</v>
       </c>
       <c r="E593" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F593" s="26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G593" s="26" t="s">
         <v>22</v>
@@ -27179,7 +27177,7 @@
     </row>
     <row r="594" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A594" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B594" s="47">
         <v>267</v>
@@ -27191,10 +27189,10 @@
         <v>92</v>
       </c>
       <c r="E594" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F594" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G594" s="26" t="s">
         <v>22</v>
@@ -27214,7 +27212,7 @@
     </row>
     <row r="595" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A595" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B595" s="47">
         <v>267</v>
@@ -27226,10 +27224,10 @@
         <v>92</v>
       </c>
       <c r="E595" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F595" s="26" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G595" s="26" t="s">
         <v>22</v>
@@ -27249,7 +27247,7 @@
     </row>
     <row r="596" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A596" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B596" s="47">
         <v>267</v>
@@ -27261,10 +27259,10 @@
         <v>92</v>
       </c>
       <c r="E596" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F596" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G596" s="26" t="s">
         <v>41</v>
@@ -27284,7 +27282,7 @@
     </row>
     <row r="597" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A597" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B597" s="47">
         <v>267</v>
@@ -27296,10 +27294,10 @@
         <v>92</v>
       </c>
       <c r="E597" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F597" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G597" s="26" t="s">
         <v>41</v>
@@ -27319,7 +27317,7 @@
     </row>
     <row r="598" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A598" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B598" s="47">
         <v>267</v>
@@ -27331,10 +27329,10 @@
         <v>92</v>
       </c>
       <c r="E598" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F598" s="26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G598" s="26" t="s">
         <v>41</v>
@@ -27354,7 +27352,7 @@
     </row>
     <row r="599" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A599" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B599" s="47">
         <v>267</v>
@@ -27366,10 +27364,10 @@
         <v>92</v>
       </c>
       <c r="E599" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F599" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G599" s="26" t="s">
         <v>41</v>
@@ -27389,7 +27387,7 @@
     </row>
     <row r="600" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A600" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B600" s="47">
         <v>267</v>
@@ -27401,10 +27399,10 @@
         <v>92</v>
       </c>
       <c r="E600" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F600" s="26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G600" s="26" t="s">
         <v>22</v>
@@ -27424,7 +27422,7 @@
     </row>
     <row r="601" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A601" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B601" s="47">
         <v>267</v>
@@ -27436,10 +27434,10 @@
         <v>92</v>
       </c>
       <c r="E601" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F601" s="26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G601" s="26" t="s">
         <v>22</v>
@@ -27459,7 +27457,7 @@
     </row>
     <row r="602" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A602" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B602" s="47">
         <v>267</v>
@@ -27471,10 +27469,10 @@
         <v>92</v>
       </c>
       <c r="E602" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F602" s="26" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G602" s="26" t="s">
         <v>22</v>
@@ -27494,7 +27492,7 @@
     </row>
     <row r="603" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A603" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B603" s="47">
         <v>267</v>
@@ -27506,10 +27504,10 @@
         <v>92</v>
       </c>
       <c r="E603" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F603" s="26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G603" s="26" t="s">
         <v>22</v>
@@ -27529,7 +27527,7 @@
     </row>
     <row r="604" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A604" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B604" s="47">
         <v>267</v>
@@ -27541,10 +27539,10 @@
         <v>92</v>
       </c>
       <c r="E604" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F604" s="26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G604" s="26" t="s">
         <v>41</v>
@@ -27564,7 +27562,7 @@
     </row>
     <row r="605" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A605" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B605" s="47">
         <v>267</v>
@@ -27576,10 +27574,10 @@
         <v>92</v>
       </c>
       <c r="E605" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F605" s="26" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G605" s="26" t="s">
         <v>22</v>
@@ -27599,7 +27597,7 @@
     </row>
     <row r="606" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A606" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B606" s="47">
         <v>267</v>
@@ -27611,10 +27609,10 @@
         <v>92</v>
       </c>
       <c r="E606" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F606" s="26" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G606" s="26" t="s">
         <v>22</v>
@@ -27634,7 +27632,7 @@
     </row>
     <row r="607" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A607" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B607" s="47">
         <v>267</v>
@@ -27646,10 +27644,10 @@
         <v>92</v>
       </c>
       <c r="E607" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F607" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G607" s="26" t="s">
         <v>22</v>
@@ -27669,7 +27667,7 @@
     </row>
     <row r="608" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A608" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B608" s="47">
         <v>267</v>
@@ -27681,10 +27679,10 @@
         <v>92</v>
       </c>
       <c r="E608" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F608" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G608" s="26" t="s">
         <v>41</v>
@@ -27704,7 +27702,7 @@
     </row>
     <row r="609" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A609" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B609" s="47">
         <v>267</v>
@@ -27716,10 +27714,10 @@
         <v>92</v>
       </c>
       <c r="E609" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F609" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G609" s="26" t="s">
         <v>22</v>
@@ -27739,7 +27737,7 @@
     </row>
     <row r="610" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A610" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B610" s="47">
         <v>267</v>
@@ -27751,10 +27749,10 @@
         <v>92</v>
       </c>
       <c r="E610" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F610" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G610" s="26" t="s">
         <v>61</v>
@@ -27774,7 +27772,7 @@
     </row>
     <row r="611" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A611" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B611" s="47">
         <v>267</v>
@@ -27786,10 +27784,10 @@
         <v>92</v>
       </c>
       <c r="E611" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F611" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G611" s="26" t="s">
         <v>22</v>
@@ -27809,7 +27807,7 @@
     </row>
     <row r="612" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A612" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B612" s="47">
         <v>267</v>
@@ -27821,10 +27819,10 @@
         <v>92</v>
       </c>
       <c r="E612" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F612" s="26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G612" s="26" t="s">
         <v>22</v>
@@ -27844,7 +27842,7 @@
     </row>
     <row r="613" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A613" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B613" s="47">
         <v>267</v>
@@ -27856,10 +27854,10 @@
         <v>92</v>
       </c>
       <c r="E613" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F613" s="26" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G613" s="26" t="s">
         <v>22</v>
@@ -27879,7 +27877,7 @@
     </row>
     <row r="614" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A614" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B614" s="47">
         <v>267</v>
@@ -27891,10 +27889,10 @@
         <v>92</v>
       </c>
       <c r="E614" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F614" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G614" s="26" t="s">
         <v>22</v>
@@ -27914,7 +27912,7 @@
     </row>
     <row r="615" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A615" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B615" s="47">
         <v>267</v>
@@ -27926,10 +27924,10 @@
         <v>92</v>
       </c>
       <c r="E615" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F615" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G615" s="26" t="s">
         <v>22</v>
@@ -27949,7 +27947,7 @@
     </row>
     <row r="616" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A616" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B616" s="47">
         <v>267</v>
@@ -27961,10 +27959,10 @@
         <v>92</v>
       </c>
       <c r="E616" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F616" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G616" s="26" t="s">
         <v>22</v>
@@ -27984,7 +27982,7 @@
     </row>
     <row r="617" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A617" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B617" s="47">
         <v>267</v>
@@ -27996,10 +27994,10 @@
         <v>92</v>
       </c>
       <c r="E617" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F617" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G617" s="26" t="s">
         <v>41</v>
@@ -28019,7 +28017,7 @@
     </row>
     <row r="618" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A618" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B618" s="47">
         <v>267</v>
@@ -28031,10 +28029,10 @@
         <v>92</v>
       </c>
       <c r="E618" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F618" s="26" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G618" s="26" t="s">
         <v>41</v>
@@ -28054,7 +28052,7 @@
     </row>
     <row r="619" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A619" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B619" s="47">
         <v>267</v>
@@ -28066,10 +28064,10 @@
         <v>92</v>
       </c>
       <c r="E619" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F619" s="26" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G619" s="26" t="s">
         <v>41</v>
@@ -28089,7 +28087,7 @@
     </row>
     <row r="620" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A620" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B620" s="47">
         <v>267</v>
@@ -28101,10 +28099,10 @@
         <v>92</v>
       </c>
       <c r="E620" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F620" s="26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G620" s="26" t="s">
         <v>19</v>
@@ -28124,7 +28122,7 @@
     </row>
     <row r="621" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A621" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B621" s="47">
         <v>267</v>
@@ -28136,13 +28134,13 @@
         <v>92</v>
       </c>
       <c r="E621" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F621" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="G621" s="26" t="s">
         <v>712</v>
-      </c>
-      <c r="G621" s="26" t="s">
-        <v>713</v>
       </c>
       <c r="H621" s="28">
         <v>44154.824999999997</v>
@@ -28159,7 +28157,7 @@
     </row>
     <row r="622" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A622" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B622" s="47">
         <v>267</v>
@@ -28171,10 +28169,10 @@
         <v>92</v>
       </c>
       <c r="E622" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F622" s="26" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G622" s="26" t="s">
         <v>51</v>
@@ -28194,7 +28192,7 @@
     </row>
     <row r="623" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A623" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B623" s="47">
         <v>267</v>
@@ -28206,10 +28204,10 @@
         <v>92</v>
       </c>
       <c r="E623" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F623" s="26" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G623" s="26" t="s">
         <v>61</v>
@@ -28229,7 +28227,7 @@
     </row>
     <row r="624" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A624" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B624" s="47">
         <v>267</v>
@@ -28241,10 +28239,10 @@
         <v>92</v>
       </c>
       <c r="E624" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F624" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G624" s="26" t="s">
         <v>41</v>
@@ -28264,7 +28262,7 @@
     </row>
     <row r="625" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A625" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B625" s="47">
         <v>267</v>
@@ -28276,10 +28274,10 @@
         <v>92</v>
       </c>
       <c r="E625" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F625" s="26" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G625" s="26" t="s">
         <v>41</v>
@@ -28299,7 +28297,7 @@
     </row>
     <row r="626" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A626" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B626" s="47">
         <v>267</v>
@@ -28311,10 +28309,10 @@
         <v>92</v>
       </c>
       <c r="E626" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F626" s="26" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G626" s="26" t="s">
         <v>61</v>
@@ -28334,7 +28332,7 @@
     </row>
     <row r="627" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A627" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B627" s="47">
         <v>267</v>
@@ -28346,10 +28344,10 @@
         <v>92</v>
       </c>
       <c r="E627" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F627" s="26" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G627" s="26" t="s">
         <v>51</v>
@@ -28369,7 +28367,7 @@
     </row>
     <row r="628" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A628" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B628" s="47">
         <v>267</v>
@@ -28381,10 +28379,10 @@
         <v>92</v>
       </c>
       <c r="E628" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F628" s="26" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G628" s="26" t="s">
         <v>45</v>
@@ -28404,7 +28402,7 @@
     </row>
     <row r="629" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A629" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B629" s="47">
         <v>267</v>
@@ -28416,10 +28414,10 @@
         <v>92</v>
       </c>
       <c r="E629" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F629" s="26" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G629" s="26" t="s">
         <v>45</v>
@@ -28439,7 +28437,7 @@
     </row>
     <row r="630" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A630" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B630" s="47">
         <v>267</v>
@@ -28451,13 +28449,13 @@
         <v>92</v>
       </c>
       <c r="E630" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F630" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="G630" s="26" t="s">
         <v>722</v>
-      </c>
-      <c r="G630" s="26" t="s">
-        <v>723</v>
       </c>
       <c r="H630" s="28">
         <v>44154.825694444444</v>
@@ -28474,7 +28472,7 @@
     </row>
     <row r="631" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A631" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B631" s="47">
         <v>267</v>
@@ -28486,10 +28484,10 @@
         <v>92</v>
       </c>
       <c r="E631" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F631" s="26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G631" s="26" t="s">
         <v>41</v>
@@ -28509,7 +28507,7 @@
     </row>
     <row r="632" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A632" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B632" s="47">
         <v>267</v>
@@ -28521,13 +28519,13 @@
         <v>92</v>
       </c>
       <c r="E632" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F632" s="26" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G632" s="26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H632" s="28">
         <v>44154.826388888891</v>
@@ -28544,7 +28542,7 @@
     </row>
     <row r="633" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A633" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B633" s="47">
         <v>267</v>
@@ -28556,13 +28554,13 @@
         <v>92</v>
       </c>
       <c r="E633" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F633" s="26" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G633" s="26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H633" s="28">
         <v>44154.826388888891</v>
@@ -28579,7 +28577,7 @@
     </row>
     <row r="634" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A634" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B634" s="47">
         <v>267</v>
@@ -28591,13 +28589,13 @@
         <v>92</v>
       </c>
       <c r="E634" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F634" s="26" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G634" s="26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H634" s="28">
         <v>44154.826388888891</v>
@@ -28614,7 +28612,7 @@
     </row>
     <row r="635" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A635" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B635" s="47">
         <v>267</v>
@@ -28626,10 +28624,10 @@
         <v>92</v>
       </c>
       <c r="E635" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F635" s="26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G635" s="26" t="s">
         <v>41</v>
@@ -28649,7 +28647,7 @@
     </row>
     <row r="636" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A636" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B636" s="47">
         <v>267</v>
@@ -28661,13 +28659,13 @@
         <v>92</v>
       </c>
       <c r="E636" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F636" s="26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G636" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H636" s="28">
         <v>44154.82708333333</v>
@@ -28684,7 +28682,7 @@
     </row>
     <row r="637" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A637" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B637" s="47">
         <v>267</v>
@@ -28696,10 +28694,10 @@
         <v>92</v>
       </c>
       <c r="E637" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F637" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G637" s="26" t="s">
         <v>41</v>
@@ -28719,7 +28717,7 @@
     </row>
     <row r="638" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A638" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B638" s="47">
         <v>267</v>
@@ -28731,13 +28729,13 @@
         <v>92</v>
       </c>
       <c r="E638" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F638" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G638" s="26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H638" s="28">
         <v>44154.82708333333</v>
@@ -28754,7 +28752,7 @@
     </row>
     <row r="639" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A639" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B639" s="47">
         <v>267</v>
@@ -28766,13 +28764,13 @@
         <v>92</v>
       </c>
       <c r="E639" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F639" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G639" s="26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H639" s="28">
         <v>44154.82708333333</v>
@@ -28789,7 +28787,7 @@
     </row>
     <row r="640" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A640" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B640" s="47">
         <v>267</v>
@@ -28801,13 +28799,13 @@
         <v>92</v>
       </c>
       <c r="E640" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F640" s="26" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G640" s="26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H640" s="28">
         <v>44154.82708333333</v>
@@ -28824,7 +28822,7 @@
     </row>
     <row r="641" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A641" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B641" s="47">
         <v>267</v>
@@ -28836,10 +28834,10 @@
         <v>92</v>
       </c>
       <c r="E641" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F641" s="26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G641" s="26" t="s">
         <v>41</v>
@@ -28859,7 +28857,7 @@
     </row>
     <row r="642" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A642" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B642" s="47">
         <v>267</v>
@@ -28871,13 +28869,13 @@
         <v>92</v>
       </c>
       <c r="E642" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F642" s="26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G642" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H642" s="28">
         <v>44154.827777777777</v>
@@ -28894,7 +28892,7 @@
     </row>
     <row r="643" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A643" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B643" s="47">
         <v>267</v>
@@ -28906,13 +28904,13 @@
         <v>92</v>
       </c>
       <c r="E643" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F643" s="26" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G643" s="26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H643" s="28">
         <v>44154.827777777777</v>
@@ -28929,7 +28927,7 @@
     </row>
     <row r="644" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A644" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B644" s="47">
         <v>267</v>
@@ -28941,10 +28939,10 @@
         <v>92</v>
       </c>
       <c r="E644" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F644" s="26" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G644" s="26" t="s">
         <v>41</v>
@@ -28964,7 +28962,7 @@
     </row>
     <row r="645" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A645" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B645" s="47">
         <v>267</v>
@@ -28976,13 +28974,13 @@
         <v>92</v>
       </c>
       <c r="E645" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F645" s="26" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G645" s="26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H645" s="28">
         <v>44154.827777777777</v>
@@ -28999,7 +28997,7 @@
     </row>
     <row r="646" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A646" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B646" s="47">
         <v>267</v>
@@ -29011,10 +29009,10 @@
         <v>92</v>
       </c>
       <c r="E646" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F646" s="26" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G646" s="26" t="s">
         <v>61</v>
@@ -29034,7 +29032,7 @@
     </row>
     <row r="647" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A647" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B647" s="47">
         <v>267</v>
@@ -29046,10 +29044,10 @@
         <v>92</v>
       </c>
       <c r="E647" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F647" s="26" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G647" s="26" t="s">
         <v>61</v>
@@ -29069,7 +29067,7 @@
     </row>
     <row r="648" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A648" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B648" s="47">
         <v>267</v>
@@ -29081,10 +29079,10 @@
         <v>92</v>
       </c>
       <c r="E648" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F648" s="26" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G648" s="26" t="s">
         <v>61</v>
@@ -29104,7 +29102,7 @@
     </row>
     <row r="649" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A649" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B649" s="47">
         <v>267</v>
@@ -29116,10 +29114,10 @@
         <v>92</v>
       </c>
       <c r="E649" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F649" s="26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G649" s="26" t="s">
         <v>61</v>
@@ -29139,7 +29137,7 @@
     </row>
     <row r="650" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A650" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B650" s="47">
         <v>267</v>
@@ -29151,10 +29149,10 @@
         <v>92</v>
       </c>
       <c r="E650" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F650" s="26" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G650" s="26" t="s">
         <v>61</v>
@@ -29174,7 +29172,7 @@
     </row>
     <row r="651" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A651" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B651" s="47">
         <v>267</v>
@@ -29186,10 +29184,10 @@
         <v>92</v>
       </c>
       <c r="E651" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F651" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G651" s="26" t="s">
         <v>45</v>
@@ -29209,7 +29207,7 @@
     </row>
     <row r="652" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A652" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B652" s="47">
         <v>267</v>
@@ -29221,10 +29219,10 @@
         <v>92</v>
       </c>
       <c r="E652" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F652" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G652" s="26" t="s">
         <v>45</v>
@@ -29244,7 +29242,7 @@
     </row>
     <row r="653" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A653" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B653" s="47">
         <v>267</v>
@@ -29256,10 +29254,10 @@
         <v>92</v>
       </c>
       <c r="E653" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F653" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G653" s="26" t="s">
         <v>41</v>
@@ -29279,7 +29277,7 @@
     </row>
     <row r="654" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A654" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B654" s="47">
         <v>267</v>
@@ -29291,10 +29289,10 @@
         <v>92</v>
       </c>
       <c r="E654" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F654" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G654" s="26" t="s">
         <v>41</v>
@@ -29314,7 +29312,7 @@
     </row>
     <row r="655" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A655" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B655" s="47">
         <v>267</v>
@@ -29326,10 +29324,10 @@
         <v>92</v>
       </c>
       <c r="E655" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F655" s="26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G655" s="26" t="s">
         <v>45</v>
@@ -29349,7 +29347,7 @@
     </row>
     <row r="656" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A656" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B656" s="47">
         <v>267</v>
@@ -29361,10 +29359,10 @@
         <v>92</v>
       </c>
       <c r="E656" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F656" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G656" s="26" t="s">
         <v>61</v>
@@ -29384,7 +29382,7 @@
     </row>
     <row r="657" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A657" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B657" s="47">
         <v>267</v>
@@ -29396,10 +29394,10 @@
         <v>92</v>
       </c>
       <c r="E657" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F657" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G657" s="26" t="s">
         <v>41</v>
@@ -29419,7 +29417,7 @@
     </row>
     <row r="658" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A658" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B658" s="47">
         <v>267</v>
@@ -29431,10 +29429,10 @@
         <v>92</v>
       </c>
       <c r="E658" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F658" s="26" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G658" s="26" t="s">
         <v>45</v>
@@ -29454,7 +29452,7 @@
     </row>
     <row r="659" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A659" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B659" s="47">
         <v>267</v>
@@ -29466,10 +29464,10 @@
         <v>92</v>
       </c>
       <c r="E659" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F659" s="26" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G659" s="26" t="s">
         <v>51</v>
@@ -29489,7 +29487,7 @@
     </row>
     <row r="660" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A660" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B660" s="47">
         <v>267</v>
@@ -29501,10 +29499,10 @@
         <v>92</v>
       </c>
       <c r="E660" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F660" s="26" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G660" s="26" t="s">
         <v>61</v>
@@ -29524,7 +29522,7 @@
     </row>
     <row r="661" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A661" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B661" s="47">
         <v>267</v>
@@ -29536,10 +29534,10 @@
         <v>92</v>
       </c>
       <c r="E661" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F661" s="26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G661" s="26" t="s">
         <v>61</v>
@@ -29559,7 +29557,7 @@
     </row>
     <row r="662" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A662" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B662" s="47">
         <v>267</v>
@@ -29571,10 +29569,10 @@
         <v>92</v>
       </c>
       <c r="E662" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F662" s="26" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G662" s="26" t="s">
         <v>51</v>
@@ -29594,7 +29592,7 @@
     </row>
     <row r="663" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A663" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B663" s="47">
         <v>267</v>
@@ -29606,10 +29604,10 @@
         <v>92</v>
       </c>
       <c r="E663" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F663" s="26" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G663" s="26" t="s">
         <v>51</v>
@@ -29629,7 +29627,7 @@
     </row>
     <row r="664" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A664" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B664" s="47">
         <v>267</v>
@@ -29641,10 +29639,10 @@
         <v>92</v>
       </c>
       <c r="E664" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F664" s="26" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G664" s="26" t="s">
         <v>61</v>
@@ -29664,7 +29662,7 @@
     </row>
     <row r="665" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A665" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B665" s="47">
         <v>267</v>
@@ -29676,10 +29674,10 @@
         <v>92</v>
       </c>
       <c r="E665" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F665" s="26" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G665" s="26" t="s">
         <v>41</v>
@@ -29699,7 +29697,7 @@
     </row>
     <row r="666" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A666" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B666" s="47">
         <v>267</v>
@@ -29711,10 +29709,10 @@
         <v>92</v>
       </c>
       <c r="E666" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F666" s="26" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G666" s="26" t="s">
         <v>41</v>
@@ -29734,7 +29732,7 @@
     </row>
     <row r="667" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A667" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B667" s="47">
         <v>267</v>
@@ -29746,10 +29744,10 @@
         <v>92</v>
       </c>
       <c r="E667" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F667" s="26" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G667" s="26" t="s">
         <v>51</v>
@@ -29769,7 +29767,7 @@
     </row>
     <row r="668" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A668" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B668" s="47">
         <v>267</v>
@@ -29781,10 +29779,10 @@
         <v>92</v>
       </c>
       <c r="E668" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F668" s="26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G668" s="26" t="s">
         <v>51</v>
@@ -29804,7 +29802,7 @@
     </row>
     <row r="669" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A669" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B669" s="47">
         <v>267</v>
@@ -29816,10 +29814,10 @@
         <v>92</v>
       </c>
       <c r="E669" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F669" s="26" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G669" s="26" t="s">
         <v>51</v>
@@ -29839,7 +29837,7 @@
     </row>
     <row r="670" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A670" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B670" s="47">
         <v>267</v>
@@ -29851,10 +29849,10 @@
         <v>92</v>
       </c>
       <c r="E670" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F670" s="26" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G670" s="26" t="s">
         <v>41</v>
@@ -29874,7 +29872,7 @@
     </row>
     <row r="671" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A671" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B671" s="47">
         <v>267</v>
@@ -29886,10 +29884,10 @@
         <v>92</v>
       </c>
       <c r="E671" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F671" s="26" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G671" s="26" t="s">
         <v>41</v>
@@ -29909,7 +29907,7 @@
     </row>
     <row r="672" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A672" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B672" s="47">
         <v>267</v>
@@ -29921,10 +29919,10 @@
         <v>92</v>
       </c>
       <c r="E672" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F672" s="26" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G672" s="26" t="s">
         <v>61</v>
@@ -29944,7 +29942,7 @@
     </row>
     <row r="673" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A673" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B673" s="47">
         <v>267</v>
@@ -29956,10 +29954,10 @@
         <v>92</v>
       </c>
       <c r="E673" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F673" s="26" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G673" s="26" t="s">
         <v>51</v>
@@ -29979,7 +29977,7 @@
     </row>
     <row r="674" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A674" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B674" s="47">
         <v>267</v>
@@ -29991,10 +29989,10 @@
         <v>92</v>
       </c>
       <c r="E674" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F674" s="26" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G674" s="26" t="s">
         <v>51</v>
@@ -30014,7 +30012,7 @@
     </row>
     <row r="675" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A675" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B675" s="47">
         <v>267</v>
@@ -30026,10 +30024,10 @@
         <v>92</v>
       </c>
       <c r="E675" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F675" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G675" s="26" t="s">
         <v>41</v>
@@ -30049,7 +30047,7 @@
     </row>
     <row r="676" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A676" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B676" s="47">
         <v>267</v>
@@ -30061,10 +30059,10 @@
         <v>92</v>
       </c>
       <c r="E676" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F676" s="26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G676" s="26" t="s">
         <v>45</v>
@@ -30084,7 +30082,7 @@
     </row>
     <row r="677" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A677" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B677" s="47">
         <v>267</v>
@@ -30096,10 +30094,10 @@
         <v>92</v>
       </c>
       <c r="E677" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F677" s="26" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G677" s="26" t="s">
         <v>51</v>
@@ -30119,7 +30117,7 @@
     </row>
     <row r="678" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A678" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B678" s="47">
         <v>267</v>
@@ -30131,10 +30129,10 @@
         <v>92</v>
       </c>
       <c r="E678" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F678" s="26" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G678" s="26" t="s">
         <v>51</v>
@@ -30154,7 +30152,7 @@
     </row>
     <row r="679" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A679" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B679" s="47">
         <v>267</v>
@@ -30166,10 +30164,10 @@
         <v>92</v>
       </c>
       <c r="E679" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F679" s="26" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G679" s="26" t="s">
         <v>51</v>
@@ -30189,7 +30187,7 @@
     </row>
     <row r="680" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A680" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B680" s="47">
         <v>267</v>
@@ -30201,10 +30199,10 @@
         <v>92</v>
       </c>
       <c r="E680" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F680" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G680" s="26" t="s">
         <v>51</v>
@@ -30224,7 +30222,7 @@
     </row>
     <row r="681" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A681" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B681" s="47">
         <v>267</v>
@@ -30236,10 +30234,10 @@
         <v>92</v>
       </c>
       <c r="E681" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F681" s="26" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G681" s="26" t="s">
         <v>61</v>
@@ -30259,7 +30257,7 @@
     </row>
     <row r="682" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A682" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B682" s="47">
         <v>267</v>
@@ -30271,10 +30269,10 @@
         <v>92</v>
       </c>
       <c r="E682" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F682" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G682" s="26" t="s">
         <v>51</v>
@@ -30294,7 +30292,7 @@
     </row>
     <row r="683" spans="1:11" s="29" customFormat="1" ht="60">
       <c r="A683" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B683" s="47">
         <v>267</v>
@@ -30306,10 +30304,10 @@
         <v>92</v>
       </c>
       <c r="E683" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F683" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G683" s="26" t="s">
         <v>51</v>
@@ -30329,7 +30327,7 @@
     </row>
     <row r="684" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A684" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B684" s="47">
         <v>267</v>
@@ -30341,10 +30339,10 @@
         <v>92</v>
       </c>
       <c r="E684" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F684" s="26" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G684" s="26" t="s">
         <v>61</v>
@@ -30364,7 +30362,7 @@
     </row>
     <row r="685" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A685" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B685" s="47">
         <v>267</v>
@@ -30376,10 +30374,10 @@
         <v>92</v>
       </c>
       <c r="E685" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F685" s="26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G685" s="26" t="s">
         <v>61</v>
@@ -30399,7 +30397,7 @@
     </row>
     <row r="686" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A686" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B686" s="47">
         <v>267</v>
@@ -30411,10 +30409,10 @@
         <v>92</v>
       </c>
       <c r="E686" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F686" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G686" s="26" t="s">
         <v>41</v>
@@ -30434,7 +30432,7 @@
     </row>
     <row r="687" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A687" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B687" s="47">
         <v>267</v>
@@ -30446,10 +30444,10 @@
         <v>92</v>
       </c>
       <c r="E687" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F687" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G687" s="26" t="s">
         <v>51</v>
@@ -30469,7 +30467,7 @@
     </row>
     <row r="688" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A688" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B688" s="47">
         <v>267</v>
@@ -30481,10 +30479,10 @@
         <v>92</v>
       </c>
       <c r="E688" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F688" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G688" s="26" t="s">
         <v>45</v>
@@ -30504,7 +30502,7 @@
     </row>
     <row r="689" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A689" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B689" s="47">
         <v>267</v>
@@ -30516,10 +30514,10 @@
         <v>92</v>
       </c>
       <c r="E689" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F689" s="26" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G689" s="26" t="s">
         <v>61</v>
@@ -30539,7 +30537,7 @@
     </row>
     <row r="690" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A690" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B690" s="47">
         <v>267</v>
@@ -30551,10 +30549,10 @@
         <v>92</v>
       </c>
       <c r="E690" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F690" s="26" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G690" s="26" t="s">
         <v>61</v>
@@ -30574,7 +30572,7 @@
     </row>
     <row r="691" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A691" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B691" s="47">
         <v>267</v>
@@ -30586,10 +30584,10 @@
         <v>92</v>
       </c>
       <c r="E691" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F691" s="26" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G691" s="26" t="s">
         <v>61</v>
@@ -30609,7 +30607,7 @@
     </row>
     <row r="692" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A692" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B692" s="47">
         <v>267</v>
@@ -30621,10 +30619,10 @@
         <v>92</v>
       </c>
       <c r="E692" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F692" s="26" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G692" s="26" t="s">
         <v>41</v>
@@ -30644,7 +30642,7 @@
     </row>
     <row r="693" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A693" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B693" s="47">
         <v>267</v>
@@ -30656,10 +30654,10 @@
         <v>92</v>
       </c>
       <c r="E693" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F693" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G693" s="26" t="s">
         <v>61</v>
@@ -30679,7 +30677,7 @@
     </row>
     <row r="694" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A694" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B694" s="47">
         <v>267</v>
@@ -30691,10 +30689,10 @@
         <v>92</v>
       </c>
       <c r="E694" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F694" s="26" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G694" s="26" t="s">
         <v>61</v>
@@ -30714,7 +30712,7 @@
     </row>
     <row r="695" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A695" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B695" s="47">
         <v>267</v>
@@ -30726,10 +30724,10 @@
         <v>92</v>
       </c>
       <c r="E695" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F695" s="26" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G695" s="26" t="s">
         <v>45</v>
@@ -30749,7 +30747,7 @@
     </row>
     <row r="696" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A696" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B696" s="47">
         <v>267</v>
@@ -30761,13 +30759,13 @@
         <v>92</v>
       </c>
       <c r="E696" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F696" s="26" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G696" s="26" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H696" s="28">
         <v>44154.836111111108</v>
@@ -30784,7 +30782,7 @@
     </row>
     <row r="697" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A697" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B697" s="47">
         <v>267</v>
@@ -30796,10 +30794,10 @@
         <v>92</v>
       </c>
       <c r="E697" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F697" s="26" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G697" s="26" t="s">
         <v>61</v>
@@ -30819,7 +30817,7 @@
     </row>
     <row r="698" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A698" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B698" s="47">
         <v>267</v>
@@ -30831,10 +30829,10 @@
         <v>92</v>
       </c>
       <c r="E698" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F698" s="26" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G698" s="26" t="s">
         <v>61</v>
@@ -30854,7 +30852,7 @@
     </row>
     <row r="699" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A699" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B699" s="47">
         <v>267</v>
@@ -30866,10 +30864,10 @@
         <v>92</v>
       </c>
       <c r="E699" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F699" s="26" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G699" s="26" t="s">
         <v>61</v>
@@ -30889,7 +30887,7 @@
     </row>
     <row r="700" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A700" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B700" s="47">
         <v>267</v>
@@ -30901,10 +30899,10 @@
         <v>92</v>
       </c>
       <c r="E700" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F700" s="26" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G700" s="26" t="s">
         <v>61</v>
@@ -30924,7 +30922,7 @@
     </row>
     <row r="701" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A701" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B701" s="47">
         <v>267</v>
@@ -30936,10 +30934,10 @@
         <v>92</v>
       </c>
       <c r="E701" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F701" s="26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G701" s="26" t="s">
         <v>41</v>
@@ -30959,7 +30957,7 @@
     </row>
     <row r="702" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A702" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B702" s="47">
         <v>267</v>
@@ -30971,10 +30969,10 @@
         <v>92</v>
       </c>
       <c r="E702" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F702" s="26" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G702" s="26" t="s">
         <v>61</v>
@@ -30994,7 +30992,7 @@
     </row>
     <row r="703" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A703" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B703" s="47">
         <v>267</v>
@@ -31006,10 +31004,10 @@
         <v>92</v>
       </c>
       <c r="E703" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F703" s="26" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G703" s="26" t="s">
         <v>45</v>
@@ -31029,7 +31027,7 @@
     </row>
     <row r="704" spans="1:11" s="29" customFormat="1" ht="60">
       <c r="A704" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B704" s="47">
         <v>267</v>
@@ -31041,10 +31039,10 @@
         <v>92</v>
       </c>
       <c r="E704" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F704" s="26" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G704" s="26" t="s">
         <v>45</v>
@@ -31064,7 +31062,7 @@
     </row>
     <row r="705" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A705" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B705" s="47">
         <v>267</v>
@@ -31076,10 +31074,10 @@
         <v>92</v>
       </c>
       <c r="E705" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F705" s="26" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G705" s="26" t="s">
         <v>45</v>
@@ -31099,7 +31097,7 @@
     </row>
     <row r="706" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A706" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B706" s="47">
         <v>267</v>
@@ -31111,10 +31109,10 @@
         <v>92</v>
       </c>
       <c r="E706" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F706" s="26" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G706" s="26" t="s">
         <v>61</v>
@@ -31134,7 +31132,7 @@
     </row>
     <row r="707" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A707" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B707" s="47">
         <v>267</v>
@@ -31146,10 +31144,10 @@
         <v>92</v>
       </c>
       <c r="E707" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F707" s="26" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G707" s="26" t="s">
         <v>45</v>
@@ -31169,7 +31167,7 @@
     </row>
     <row r="708" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A708" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B708" s="47">
         <v>267</v>
@@ -31181,10 +31179,10 @@
         <v>92</v>
       </c>
       <c r="E708" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F708" s="26" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G708" s="26" t="s">
         <v>45</v>
@@ -31204,7 +31202,7 @@
     </row>
     <row r="709" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A709" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B709" s="47">
         <v>267</v>
@@ -31216,13 +31214,13 @@
         <v>92</v>
       </c>
       <c r="E709" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F709" s="26" t="s">
+        <v>800</v>
+      </c>
+      <c r="G709" s="26" t="s">
         <v>801</v>
-      </c>
-      <c r="G709" s="26" t="s">
-        <v>802</v>
       </c>
       <c r="H709" s="28">
         <v>44154.837500000001</v>
@@ -31239,7 +31237,7 @@
     </row>
     <row r="710" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A710" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B710" s="47">
         <v>267</v>
@@ -31251,13 +31249,13 @@
         <v>92</v>
       </c>
       <c r="E710" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F710" s="26" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G710" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H710" s="28">
         <v>44154.837500000001</v>
@@ -31274,7 +31272,7 @@
     </row>
     <row r="711" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A711" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B711" s="47">
         <v>267</v>
@@ -31286,13 +31284,13 @@
         <v>92</v>
       </c>
       <c r="E711" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F711" s="26" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G711" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H711" s="28">
         <v>44154.837500000001</v>
@@ -31309,7 +31307,7 @@
     </row>
     <row r="712" spans="1:11" s="34" customFormat="1" ht="15">
       <c r="A712" s="31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B712" s="48">
         <v>267</v>
@@ -31321,13 +31319,13 @@
         <v>92</v>
       </c>
       <c r="E712" s="31" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F712" s="31" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G712" s="31" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H712" s="33">
         <v>44154.837500000001</v>
@@ -31381,8 +31379,8 @@
   <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -31444,7 +31442,7 @@
         <v>385</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>22</v>
@@ -31476,7 +31474,7 @@
         <v>462</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>22</v>
@@ -31508,7 +31506,7 @@
         <v>466</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>22</v>
@@ -31540,7 +31538,7 @@
         <v>367</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>22</v>
@@ -31572,7 +31570,7 @@
         <v>367</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>149</v>
@@ -31604,7 +31602,7 @@
         <v>367</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>22</v>
@@ -31633,10 +31631,10 @@
         <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>51</v>
@@ -31665,10 +31663,10 @@
         <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>45</v>
@@ -31697,10 +31695,10 @@
         <v>16</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>22</v>
@@ -31729,10 +31727,10 @@
         <v>16</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>149</v>
@@ -31761,10 +31759,10 @@
         <v>16</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>817</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -31796,7 +31794,7 @@
         <v>459</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -31825,10 +31823,10 @@
         <v>16</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>819</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>820</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -31860,7 +31858,7 @@
         <v>360</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>22</v>
@@ -31889,10 +31887,10 @@
         <v>16</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>822</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>823</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>22</v>
@@ -31921,10 +31919,10 @@
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>22</v>
@@ -31956,7 +31954,7 @@
         <v>441</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>22</v>
@@ -31988,7 +31986,7 @@
         <v>367</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>45</v>
@@ -32020,7 +32018,7 @@
         <v>367</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>30</v>
@@ -32052,7 +32050,7 @@
         <v>367</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>178</v>
@@ -32084,7 +32082,7 @@
         <v>367</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -32116,7 +32114,7 @@
         <v>367</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>30</v>
@@ -32145,10 +32143,10 @@
         <v>16</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>831</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>832</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>22</v>
@@ -32171,7 +32169,7 @@
         <v>261</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>16</v>
@@ -32180,7 +32178,7 @@
         <v>64</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>22</v>
@@ -32203,16 +32201,16 @@
         <v>261</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>41</v>
@@ -32235,16 +32233,16 @@
         <v>261</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>22</v>
@@ -32267,16 +32265,16 @@
         <v>261</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>22</v>
@@ -32299,7 +32297,7 @@
         <v>261</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>16</v>
@@ -32308,7 +32306,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>41</v>
@@ -32331,7 +32329,7 @@
         <v>261</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>16</v>
@@ -32340,7 +32338,7 @@
         <v>64</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>22</v>
@@ -32363,16 +32361,16 @@
         <v>261</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>22</v>
@@ -32395,7 +32393,7 @@
         <v>261</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>16</v>
@@ -32404,7 +32402,7 @@
         <v>64</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>41</v>
@@ -32427,7 +32425,7 @@
         <v>261</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>16</v>
@@ -32436,7 +32434,7 @@
         <v>64</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>30</v>
@@ -32459,16 +32457,16 @@
         <v>261</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>22</v>
@@ -32491,16 +32489,16 @@
         <v>261</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>41</v>
@@ -32523,16 +32521,16 @@
         <v>261</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>22</v>
@@ -32555,16 +32553,16 @@
         <v>261</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>22</v>
@@ -32587,16 +32585,16 @@
         <v>261</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G38" s="18" t="s">
         <v>149</v>
@@ -32619,16 +32617,16 @@
         <v>261</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>22</v>
@@ -32651,13 +32649,13 @@
         <v>261</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>227</v>
@@ -32683,7 +32681,7 @@
         <v>261</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>16</v>
@@ -32692,7 +32690,7 @@
         <v>64</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>22</v>
@@ -32715,7 +32713,7 @@
         <v>261</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>16</v>
@@ -32724,7 +32722,7 @@
         <v>64</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>22</v>
@@ -32747,7 +32745,7 @@
         <v>261</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>16</v>
@@ -32756,7 +32754,7 @@
         <v>64</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>189</v>
@@ -32779,7 +32777,7 @@
         <v>261</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>16</v>
@@ -32788,7 +32786,7 @@
         <v>64</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>189</v>
@@ -32811,7 +32809,7 @@
         <v>261</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>16</v>
@@ -32820,7 +32818,7 @@
         <v>64</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>189</v>
@@ -32843,16 +32841,16 @@
         <v>261</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>22</v>
@@ -32875,16 +32873,16 @@
         <v>261</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>22</v>
@@ -32907,16 +32905,16 @@
         <v>261</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>149</v>
@@ -32939,16 +32937,16 @@
         <v>261</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>22</v>
@@ -32971,16 +32969,16 @@
         <v>261</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>22</v>
@@ -33003,16 +33001,16 @@
         <v>261</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>22</v>
@@ -33035,16 +33033,16 @@
         <v>261</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>22</v>
@@ -33067,16 +33065,16 @@
         <v>261</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>22</v>
@@ -33099,16 +33097,16 @@
         <v>261</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>22</v>
@@ -33131,16 +33129,16 @@
         <v>261</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>22</v>
@@ -33163,16 +33161,16 @@
         <v>261</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E56" s="49" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G56" s="18" t="s">
         <v>22</v>
@@ -33195,16 +33193,16 @@
         <v>261</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E57" s="49" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G57" s="18" t="s">
         <v>22</v>
@@ -33227,16 +33225,16 @@
         <v>261</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E58" s="49" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>22</v>
@@ -33259,16 +33257,16 @@
         <v>261</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>22</v>
@@ -33291,16 +33289,16 @@
         <v>261</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>22</v>
@@ -33323,16 +33321,16 @@
         <v>261</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E61" s="49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>41</v>
@@ -33355,16 +33353,16 @@
         <v>261</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E62" s="50" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G62" s="22" t="s">
         <v>22</v>
@@ -33393,10 +33391,10 @@
         <v>16</v>
       </c>
       <c r="E63" s="51" t="s">
+        <v>868</v>
+      </c>
+      <c r="F63" s="51" t="s">
         <v>869</v>
-      </c>
-      <c r="F63" s="51" t="s">
-        <v>870</v>
       </c>
       <c r="G63" s="51" t="s">
         <v>22</v>
@@ -33425,10 +33423,10 @@
         <v>16</v>
       </c>
       <c r="E64" s="51" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F64" s="51" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G64" s="51" t="s">
         <v>45</v>
@@ -33457,10 +33455,10 @@
         <v>16</v>
       </c>
       <c r="E65" s="51" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F65" s="51" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G65" s="51" t="s">
         <v>45</v>
@@ -33489,10 +33487,10 @@
         <v>16</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F66" s="51" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G66" s="51" t="s">
         <v>45</v>
@@ -33521,10 +33519,10 @@
         <v>16</v>
       </c>
       <c r="E67" s="51" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F67" s="51" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G67" s="51" t="s">
         <v>45</v>
@@ -33553,10 +33551,10 @@
         <v>16</v>
       </c>
       <c r="E68" s="51" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F68" s="51" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G68" s="51" t="s">
         <v>22</v>
@@ -33585,10 +33583,10 @@
         <v>16</v>
       </c>
       <c r="E69" s="51" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F69" s="51" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G69" s="51" t="s">
         <v>22</v>
@@ -33617,10 +33615,10 @@
         <v>16</v>
       </c>
       <c r="E70" s="51" t="s">
+        <v>876</v>
+      </c>
+      <c r="F70" s="51" t="s">
         <v>877</v>
-      </c>
-      <c r="F70" s="51" t="s">
-        <v>878</v>
       </c>
       <c r="G70" s="51" t="s">
         <v>22</v>
@@ -33649,10 +33647,10 @@
         <v>16</v>
       </c>
       <c r="E71" s="51" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F71" s="51" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G71" s="51" t="s">
         <v>22</v>
@@ -33681,10 +33679,10 @@
         <v>16</v>
       </c>
       <c r="E72" s="51" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F72" s="51" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G72" s="51" t="s">
         <v>22</v>
@@ -33713,10 +33711,10 @@
         <v>16</v>
       </c>
       <c r="E73" s="51" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F73" s="51" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G73" s="51" t="s">
         <v>149</v>
@@ -33745,10 +33743,10 @@
         <v>16</v>
       </c>
       <c r="E74" s="51" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F74" s="51" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G74" s="51" t="s">
         <v>22</v>
@@ -33777,10 +33775,10 @@
         <v>16</v>
       </c>
       <c r="E75" s="54" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F75" s="54" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G75" s="54" t="s">
         <v>22</v>
@@ -33812,7 +33810,7 @@
         <v>112</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>22</v>
@@ -33844,7 +33842,7 @@
         <v>112</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>22</v>
@@ -33876,7 +33874,7 @@
         <v>97</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>22</v>
@@ -33908,7 +33906,7 @@
         <v>103</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>22</v>
@@ -33925,7 +33923,7 @@
     </row>
     <row r="80" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A80" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B80" s="45">
         <v>266</v>
@@ -33940,7 +33938,7 @@
         <v>219</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>22</v>
@@ -33957,7 +33955,7 @@
     </row>
     <row r="81" spans="1:10" s="21" customFormat="1" ht="45">
       <c r="A81" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B81" s="45">
         <v>266</v>
@@ -33972,7 +33970,7 @@
         <v>219</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>22</v>
@@ -33989,7 +33987,7 @@
     </row>
     <row r="82" spans="1:10" s="21" customFormat="1" ht="75">
       <c r="A82" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B82" s="45">
         <v>266</v>
@@ -34004,7 +34002,7 @@
         <v>219</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G82" s="18" t="s">
         <v>22</v>
@@ -34021,7 +34019,7 @@
     </row>
     <row r="83" spans="1:10" s="21" customFormat="1" ht="60">
       <c r="A83" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B83" s="45">
         <v>266</v>
@@ -34036,7 +34034,7 @@
         <v>219</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G83" s="18" t="s">
         <v>22</v>
@@ -34053,7 +34051,7 @@
     </row>
     <row r="84" spans="1:10" s="21" customFormat="1" ht="105">
       <c r="A84" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B84" s="45">
         <v>266</v>
@@ -34068,7 +34066,7 @@
         <v>17</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G84" s="18" t="s">
         <v>22</v>
@@ -34085,7 +34083,7 @@
     </row>
     <row r="85" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A85" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B85" s="45">
         <v>266</v>
@@ -34097,10 +34095,10 @@
         <v>16</v>
       </c>
       <c r="E85" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="F85" s="18" t="s">
         <v>893</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>894</v>
       </c>
       <c r="G85" s="18" t="s">
         <v>22</v>
@@ -34117,7 +34115,7 @@
     </row>
     <row r="86" spans="1:10" s="21" customFormat="1" ht="135">
       <c r="A86" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B86" s="45">
         <v>266</v>
@@ -34129,10 +34127,10 @@
         <v>16</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G86" s="18" t="s">
         <v>22</v>
@@ -34149,7 +34147,7 @@
     </row>
     <row r="87" spans="1:10" s="21" customFormat="1" ht="120">
       <c r="A87" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B87" s="45">
         <v>266</v>
@@ -34161,10 +34159,10 @@
         <v>16</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G87" s="18" t="s">
         <v>22</v>
@@ -34181,7 +34179,7 @@
     </row>
     <row r="88" spans="1:10" s="21" customFormat="1" ht="75">
       <c r="A88" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B88" s="45">
         <v>266</v>
@@ -34196,7 +34194,7 @@
         <v>233</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G88" s="18" t="s">
         <v>22</v>
@@ -34213,7 +34211,7 @@
     </row>
     <row r="89" spans="1:10" s="21" customFormat="1" ht="30">
       <c r="A89" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B89" s="45">
         <v>266</v>
@@ -34228,7 +34226,7 @@
         <v>233</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G89" s="18" t="s">
         <v>22</v>
@@ -34245,7 +34243,7 @@
     </row>
     <row r="90" spans="1:10" s="21" customFormat="1" ht="120">
       <c r="A90" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B90" s="45">
         <v>266</v>
@@ -34260,7 +34258,7 @@
         <v>233</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>22</v>
@@ -34277,7 +34275,7 @@
     </row>
     <row r="91" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A91" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B91" s="45">
         <v>266</v>
@@ -34292,7 +34290,7 @@
         <v>233</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G91" s="18" t="s">
         <v>22</v>
@@ -34309,7 +34307,7 @@
     </row>
     <row r="92" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A92" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B92" s="45">
         <v>266</v>
@@ -34324,7 +34322,7 @@
         <v>131</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>22</v>
@@ -34341,7 +34339,7 @@
     </row>
     <row r="93" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A93" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B93" s="45">
         <v>266</v>
@@ -34356,7 +34354,7 @@
         <v>131</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G93" s="18" t="s">
         <v>149</v>
@@ -34373,7 +34371,7 @@
     </row>
     <row r="94" spans="1:10" s="21" customFormat="1" ht="105">
       <c r="A94" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B94" s="45">
         <v>266</v>
@@ -34388,7 +34386,7 @@
         <v>70</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G94" s="18" t="s">
         <v>22</v>
@@ -34405,7 +34403,7 @@
     </row>
     <row r="95" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A95" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B95" s="45">
         <v>266</v>
@@ -34420,7 +34418,7 @@
         <v>70</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>22</v>
@@ -34437,7 +34435,7 @@
     </row>
     <row r="96" spans="1:10" s="21" customFormat="1" ht="45">
       <c r="A96" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B96" s="45">
         <v>266</v>
@@ -34452,7 +34450,7 @@
         <v>70</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G96" s="18" t="s">
         <v>22</v>
@@ -34469,7 +34467,7 @@
     </row>
     <row r="97" spans="1:10" s="21" customFormat="1" ht="120">
       <c r="A97" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B97" s="45">
         <v>266</v>
@@ -34484,7 +34482,7 @@
         <v>190</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G97" s="18" t="s">
         <v>22</v>
@@ -34501,7 +34499,7 @@
     </row>
     <row r="98" spans="1:10" s="21" customFormat="1" ht="165">
       <c r="A98" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B98" s="45">
         <v>266</v>
@@ -34516,7 +34514,7 @@
         <v>190</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G98" s="18" t="s">
         <v>22</v>
@@ -34533,7 +34531,7 @@
     </row>
     <row r="99" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A99" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B99" s="45">
         <v>266</v>
@@ -34548,7 +34546,7 @@
         <v>190</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G99" s="18" t="s">
         <v>22</v>
@@ -34565,7 +34563,7 @@
     </row>
     <row r="100" spans="1:10" s="21" customFormat="1" ht="105">
       <c r="A100" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B100" s="45">
         <v>266</v>
@@ -34580,7 +34578,7 @@
         <v>190</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G100" s="18" t="s">
         <v>22</v>
@@ -34597,7 +34595,7 @@
     </row>
     <row r="101" spans="1:10" s="21" customFormat="1" ht="60">
       <c r="A101" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B101" s="45">
         <v>266</v>
@@ -34612,7 +34610,7 @@
         <v>190</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G101" s="18" t="s">
         <v>22</v>
@@ -34629,7 +34627,7 @@
     </row>
     <row r="102" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A102" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B102" s="45">
         <v>266</v>
@@ -34644,7 +34642,7 @@
         <v>319</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G102" s="18" t="s">
         <v>22</v>
@@ -34661,7 +34659,7 @@
     </row>
     <row r="103" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A103" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B103" s="45">
         <v>266</v>
@@ -34676,7 +34674,7 @@
         <v>319</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G103" s="18" t="s">
         <v>149</v>
@@ -34693,7 +34691,7 @@
     </row>
     <row r="104" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A104" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B104" s="45">
         <v>266</v>
@@ -34708,7 +34706,7 @@
         <v>136</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G104" s="18" t="s">
         <v>41</v>
@@ -34725,7 +34723,7 @@
     </row>
     <row r="105" spans="1:10" s="21" customFormat="1" ht="90">
       <c r="A105" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B105" s="45">
         <v>266</v>
@@ -34740,7 +34738,7 @@
         <v>136</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G105" s="18" t="s">
         <v>22</v>
@@ -34757,7 +34755,7 @@
     </row>
     <row r="106" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A106" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B106" s="45">
         <v>266</v>
@@ -34772,7 +34770,7 @@
         <v>324</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G106" s="18" t="s">
         <v>22</v>
@@ -34789,7 +34787,7 @@
     </row>
     <row r="107" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A107" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B107" s="45">
         <v>266</v>
@@ -34804,7 +34802,7 @@
         <v>324</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G107" s="18" t="s">
         <v>22</v>
@@ -34821,7 +34819,7 @@
     </row>
     <row r="108" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A108" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B108" s="45">
         <v>266</v>
@@ -34836,7 +34834,7 @@
         <v>324</v>
       </c>
       <c r="F108" s="57" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G108" s="18" t="s">
         <v>34</v>
@@ -34853,7 +34851,7 @@
     </row>
     <row r="109" spans="1:10" s="21" customFormat="1" ht="135">
       <c r="A109" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B109" s="45">
         <v>266</v>
@@ -34868,7 +34866,7 @@
         <v>324</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G109" s="18" t="s">
         <v>22</v>
@@ -34885,7 +34883,7 @@
     </row>
     <row r="110" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A110" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B110" s="45">
         <v>266</v>
@@ -34900,7 +34898,7 @@
         <v>324</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G110" s="18" t="s">
         <v>22</v>
@@ -34917,7 +34915,7 @@
     </row>
     <row r="111" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A111" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B111" s="45">
         <v>266</v>
@@ -34932,7 +34930,7 @@
         <v>17</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G111" s="18" t="s">
         <v>34</v>
@@ -34949,7 +34947,7 @@
     </row>
     <row r="112" spans="1:10" s="21" customFormat="1" ht="75">
       <c r="A112" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B112" s="45">
         <v>266</v>
@@ -34964,7 +34962,7 @@
         <v>17</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G112" s="18" t="s">
         <v>22</v>
@@ -34981,7 +34979,7 @@
     </row>
     <row r="113" spans="1:10" s="21" customFormat="1" ht="90">
       <c r="A113" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B113" s="45">
         <v>266</v>
@@ -34993,10 +34991,10 @@
         <v>16</v>
       </c>
       <c r="E113" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="F113" s="18" t="s">
         <v>922</v>
-      </c>
-      <c r="F113" s="18" t="s">
-        <v>923</v>
       </c>
       <c r="G113" s="18" t="s">
         <v>22</v>
@@ -35013,7 +35011,7 @@
     </row>
     <row r="114" spans="1:10" s="21" customFormat="1" ht="75">
       <c r="A114" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B114" s="45">
         <v>266</v>
@@ -35025,10 +35023,10 @@
         <v>16</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G114" s="18" t="s">
         <v>22</v>
@@ -35045,7 +35043,7 @@
     </row>
     <row r="115" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A115" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B115" s="45">
         <v>266</v>
@@ -35057,10 +35055,10 @@
         <v>16</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F115" s="57" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G115" s="18" t="s">
         <v>41</v>
@@ -35077,7 +35075,7 @@
     </row>
     <row r="116" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A116" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B116" s="45">
         <v>266</v>
@@ -35089,10 +35087,10 @@
         <v>16</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G116" s="18" t="s">
         <v>22</v>
@@ -35109,7 +35107,7 @@
     </row>
     <row r="117" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A117" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B117" s="45">
         <v>266</v>
@@ -35121,10 +35119,10 @@
         <v>16</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G117" s="18" t="s">
         <v>30</v>
@@ -35141,7 +35139,7 @@
     </row>
     <row r="118" spans="1:10" s="21" customFormat="1" ht="120">
       <c r="A118" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B118" s="45">
         <v>266</v>
@@ -35156,7 +35154,7 @@
         <v>212</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G118" s="18" t="s">
         <v>22</v>
@@ -35173,7 +35171,7 @@
     </row>
     <row r="119" spans="1:10" s="21" customFormat="1" ht="225">
       <c r="A119" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B119" s="45">
         <v>266</v>
@@ -35188,7 +35186,7 @@
         <v>212</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G119" s="18" t="s">
         <v>22</v>
@@ -35205,7 +35203,7 @@
     </row>
     <row r="120" spans="1:10" s="21" customFormat="1" ht="45">
       <c r="A120" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B120" s="45">
         <v>266</v>
@@ -35220,7 +35218,7 @@
         <v>139</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G120" s="18" t="s">
         <v>30</v>
@@ -35237,7 +35235,7 @@
     </row>
     <row r="121" spans="1:10" s="21" customFormat="1" ht="75">
       <c r="A121" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B121" s="45">
         <v>266</v>
@@ -35252,7 +35250,7 @@
         <v>139</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G121" s="18" t="s">
         <v>22</v>
@@ -35269,7 +35267,7 @@
     </row>
     <row r="122" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A122" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B122" s="45">
         <v>266</v>
@@ -35284,7 +35282,7 @@
         <v>319</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G122" s="18" t="s">
         <v>34</v>
@@ -35301,7 +35299,7 @@
     </row>
     <row r="123" spans="1:10" s="25" customFormat="1" ht="90">
       <c r="A123" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B123" s="46">
         <v>266</v>
@@ -35316,7 +35314,7 @@
         <v>319</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G123" s="22" t="s">
         <v>22</v>
@@ -35333,7 +35331,7 @@
     </row>
     <row r="124" spans="1:10" s="29" customFormat="1" ht="105">
       <c r="A124" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B124" s="47">
         <v>266</v>
@@ -35345,10 +35343,10 @@
         <v>16</v>
       </c>
       <c r="E124" s="26" t="s">
+        <v>933</v>
+      </c>
+      <c r="F124" s="26" t="s">
         <v>934</v>
-      </c>
-      <c r="F124" s="26" t="s">
-        <v>935</v>
       </c>
       <c r="G124" s="26" t="s">
         <v>22</v>
@@ -35365,7 +35363,7 @@
     </row>
     <row r="125" spans="1:10" s="29" customFormat="1" ht="75">
       <c r="A125" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B125" s="47">
         <v>266</v>
@@ -35377,10 +35375,10 @@
         <v>16</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F125" s="26" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G125" s="26" t="s">
         <v>22</v>
@@ -35397,7 +35395,7 @@
     </row>
     <row r="126" spans="1:10" s="29" customFormat="1" ht="150">
       <c r="A126" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B126" s="47">
         <v>266</v>
@@ -35409,10 +35407,10 @@
         <v>16</v>
       </c>
       <c r="E126" s="26" t="s">
+        <v>936</v>
+      </c>
+      <c r="F126" s="26" t="s">
         <v>937</v>
-      </c>
-      <c r="F126" s="26" t="s">
-        <v>938</v>
       </c>
       <c r="G126" s="26" t="s">
         <v>22</v>
@@ -35429,7 +35427,7 @@
     </row>
     <row r="127" spans="1:10" s="29" customFormat="1" ht="15">
       <c r="A127" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B127" s="47">
         <v>266</v>
@@ -35441,10 +35439,10 @@
         <v>16</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G127" s="26" t="s">
         <v>149</v>
@@ -35461,7 +35459,7 @@
     </row>
     <row r="128" spans="1:10" s="29" customFormat="1" ht="165">
       <c r="A128" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B128" s="47">
         <v>266</v>
@@ -35473,10 +35471,10 @@
         <v>16</v>
       </c>
       <c r="E128" s="26" t="s">
+        <v>939</v>
+      </c>
+      <c r="F128" s="26" t="s">
         <v>940</v>
-      </c>
-      <c r="F128" s="26" t="s">
-        <v>941</v>
       </c>
       <c r="G128" s="26" t="s">
         <v>22</v>
@@ -35493,7 +35491,7 @@
     </row>
     <row r="129" spans="1:10" s="29" customFormat="1" ht="15">
       <c r="A129" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B129" s="47">
         <v>266</v>
@@ -35505,10 +35503,10 @@
         <v>16</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F129" s="26" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G129" s="26" t="s">
         <v>149</v>
@@ -35525,7 +35523,7 @@
     </row>
     <row r="130" spans="1:10" s="29" customFormat="1" ht="75">
       <c r="A130" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B130" s="47">
         <v>266</v>
@@ -35540,7 +35538,7 @@
         <v>340</v>
       </c>
       <c r="F130" s="26" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G130" s="26" t="s">
         <v>22</v>
@@ -35557,7 +35555,7 @@
     </row>
     <row r="131" spans="1:10" s="34" customFormat="1" ht="30">
       <c r="A131" s="31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B131" s="48">
         <v>266</v>
@@ -35572,7 +35570,7 @@
         <v>340</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G131" s="31" t="s">
         <v>22</v>
@@ -35617,7 +35615,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
@@ -35629,7 +35627,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="68.25" customHeight="1">
@@ -35647,7 +35645,7 @@
         <v>2.5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="165.75">
@@ -35665,7 +35663,7 @@
         <v>3.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -35702,7 +35700,7 @@
         <v>2.5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="357">
@@ -35721,7 +35719,7 @@
         <v>2.5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="197.25" customHeight="1">
@@ -35739,7 +35737,7 @@
         <v>3.5</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="171">
@@ -35758,7 +35756,7 @@
         <v>3.5</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="140.25">
@@ -35777,7 +35775,7 @@
         <v>3.5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75">
@@ -35813,7 +35811,7 @@
         <v>3.5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="76.5">
@@ -35832,7 +35830,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="76.5">
@@ -35851,7 +35849,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="89.25">
@@ -35870,7 +35868,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="204">
@@ -35889,7 +35887,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="76.5">
@@ -35907,7 +35905,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75">
@@ -35928,7 +35926,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="409.5" customHeight="1">
@@ -35946,7 +35944,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="71.25">
@@ -35965,7 +35963,7 @@
         <v>1.5</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="128.25">
@@ -35984,7 +35982,7 @@
         <v>3.5</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25">
@@ -36005,7 +36003,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="57">
@@ -36023,7 +36021,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42.75">
@@ -36042,7 +36040,7 @@
         <v>2.5</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="57">
@@ -36061,7 +36059,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25">
@@ -36082,7 +36080,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="153">
@@ -36101,7 +36099,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="191.25">
@@ -36119,7 +36117,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75">
